--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -391,44 +391,83 @@
     <t>004MVPStudentAppWireframes.pptx &gt;&gt; Student Login Page</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on the </t>
+    <t>004MVPStudentAppWireframes.pptx &gt;&gt; Student Registration Page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fill up all the (mandatory) fields in the registration section of the Student Registration Page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Visit the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>home page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of anodiam.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
     </r>
     <r>
       <rPr>
@@ -447,125 +486,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> link on the home page of anodiam.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to view the Anodiam registration page: containing a link to login page and a registration section.</t>
-    </r>
-  </si>
-  <si>
-    <t>004MVPStudentAppWireframes.pptx &gt;&gt; Student Registration Page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>register myself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as a student with anodiam.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Fill up all the (mandatory) fields in the registration section of the Student Registration Page and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Register </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>button.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Visit the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>home page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of anodiam.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Register for free</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> link on the home page of anodiam.com</t>
     </r>
   </si>
@@ -657,86 +577,6 @@
   </si>
   <si>
     <t>Unsigned user</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Register </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">button on the student registration page of anodiam.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to register myself as a student with anodiam.com and directed to the login page with a message of successful registration on top.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1490,67 +1330,6 @@
     <t>004MVPStudentAppWireframes.pptx &gt;&gt; All logged in pages &gt;&gt; Top menu bar
 &amp;
 Student Home Page</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned but registered user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I fill up the username and password fields in the login page and click on the Login button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to view the Anodiam Student Home Page: containing a welcome message with my (first and last) name at the top, a menu bar and a paginated list of courses recommended for me according to my Board, and Class, sans the courses I have already subscribed for (purchased), order by rating and total number of students</t>
-    </r>
   </si>
   <si>
     <r>
@@ -3205,6 +2984,227 @@
   </si>
   <si>
     <t>MVP Product Backlog</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Register for free</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link on the home page of anodiam.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the Anodiam registration page: containing a link to login page and a registration section. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">button on the student registration page of anodiam.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to register myself as a student with anodiam.com. Any mandatory field validation will be showed in red on top. Upon successful registration, I should be directed to the login page with a message of successful registration on top.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned but registered user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I fill up the username and password fields in the login page and click on the Login button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the Anodiam Student Home Page: containing a welcome message with my (first and last) name at the top, a menu bar and a paginated list of courses recommended for me according to my Board, and Class, sans the courses I have already subscribed for (purchased), order by rating and total number of students. On wron userid or password I must be sent back to the login page with a login validation message (wrong user id or password) displayed on top in red</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3645,7 +3645,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:E7"/>
     </sheetView>
   </sheetViews>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -3755,9 +3755,9 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3797,7 +3797,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>22</v>
@@ -3829,13 +3829,13 @@
         <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>25</v>
@@ -3867,16 +3867,16 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>26</v>
@@ -3887,7 +3887,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3898,19 +3898,19 @@
         <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="10"/>
@@ -3929,19 +3929,19 @@
         <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="10"/>
@@ -3949,7 +3949,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3960,16 +3960,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>26</v>
@@ -3991,19 +3991,19 @@
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="10"/>
@@ -4022,19 +4022,19 @@
         <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="10"/>
@@ -4053,19 +4053,19 @@
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="10"/>
@@ -4084,19 +4084,19 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="10"/>
@@ -4115,19 +4115,19 @@
         <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="10"/>
@@ -4146,19 +4146,19 @@
         <v>16</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="10"/>
@@ -4177,19 +4177,19 @@
         <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="10"/>
@@ -4208,19 +4208,19 @@
         <v>16</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="H14" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="10"/>
@@ -4239,19 +4239,19 @@
         <v>16</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="10"/>
@@ -4270,19 +4270,19 @@
         <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="10"/>
@@ -4301,19 +4301,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="10"/>
@@ -4332,19 +4332,19 @@
         <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="10"/>
@@ -4363,19 +4363,19 @@
         <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="10"/>
@@ -4394,19 +4394,19 @@
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="10"/>
@@ -4425,19 +4425,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="10"/>
@@ -4456,19 +4456,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="10"/>
@@ -4487,19 +4487,19 @@
         <v>16</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="10"/>
@@ -4518,19 +4518,19 @@
         <v>16</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="10"/>
@@ -4549,19 +4549,19 @@
         <v>16</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="10"/>
@@ -4580,19 +4580,19 @@
         <v>16</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="10"/>
@@ -4611,19 +4611,19 @@
         <v>16</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="10"/>
@@ -4642,19 +4642,19 @@
         <v>16</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="10"/>
@@ -4673,19 +4673,19 @@
         <v>16</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="10"/>
@@ -4704,19 +4704,19 @@
         <v>16</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="10"/>
@@ -4735,19 +4735,19 @@
         <v>16</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="10"/>

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -3745,6 +3745,7 @@
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3755,20 +3756,20 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="58.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
@@ -3777,7 +3778,7 @@
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -3856,7 +3857,7 @@
       </c>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3887,7 +3888,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3918,7 +3919,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3949,7 +3950,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3980,7 +3981,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4011,7 +4012,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="18" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4073,7 +4074,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4104,7 +4105,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4135,7 +4136,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4166,7 +4167,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4197,7 +4198,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4228,7 +4229,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="18" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4259,7 +4260,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" s="18" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="18" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4290,7 +4291,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4321,7 +4322,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4352,7 +4353,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="18" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="18" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4383,7 +4384,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" s="18" customFormat="1" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="18" customFormat="1" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4414,7 +4415,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -4445,7 +4446,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -4476,7 +4477,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="18" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -4507,7 +4508,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -4538,7 +4539,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -4569,7 +4570,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="18" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -4631,7 +4632,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -4693,7 +4694,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -4724,7 +4725,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -4809,7 +4810,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -3758,17 +3758,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
@@ -3778,7 +3778,7 @@
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3919,7 +3919,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3950,7 +3950,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="18" customFormat="1" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" s="18" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="18" customFormat="1" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4043,7 +4043,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4198,7 +4198,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4229,7 +4229,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="18" customFormat="1" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4260,7 +4260,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" s="18" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="18" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4291,7 +4291,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4353,7 +4353,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="18" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" s="18" customFormat="1" ht="382.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="18" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4415,7 +4415,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -4446,7 +4446,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -4477,7 +4477,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" s="18" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="18" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -4508,7 +4508,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="18" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="18" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -4601,7 +4601,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -4663,7 +4663,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -4694,7 +4694,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>28</v>
       </c>

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -3757,8 +3757,8 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="31" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>15</v>

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="152">
   <si>
     <t>Anodiam</t>
   </si>
@@ -415,30 +415,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> as a student with anodiam.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Fill up all the (mandatory) fields in the registration section of the Student Registration Page and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Register </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>button.</t>
     </r>
   </si>
   <si>
@@ -3103,7 +3079,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I click on the </t>
+      <t xml:space="preserve"> I fill up all the fields: (username, password, email) (all mandatory) in the registration section of the Student Registration Page and click on the </t>
     </r>
     <r>
       <rPr>
@@ -3147,6 +3123,105 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Fill up all the fields: (username, password, email) (all mandatory) with valid informations in the registration section of the Student Registration Page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button.</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter invalid username
+(Less than 8 characters long)
+in the registration section of the Student Registration Page and click on the Register button..</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I cannot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive respective error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Username cannot be less than 8 characters</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I cannot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive respective error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Username already exists</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="10"/>
@@ -3163,6 +3238,656 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I enter  invalid username (Less than 8 characters long or 
+an already existing username) in the registration section of the Student Registration Page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">button on the student registration page of anodiam.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive respective error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Username cannot be less than 8 characters long</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I enter  invalid username (Less than 8 characters long or 
+an already existing username) in the registration section of the Student Registration Page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">button on the student registration page of anodiam.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive respective error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Username already exists.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I cannot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character (!, @, #, $, %, ^, &amp;, *, £)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter invalid password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Less than 8 characters or more than 20 characters
+2. contains the username string within the password
+3. Does not contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character (!, @, #, $, %, ^, &amp;, *, £)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+in the registration section of the Student Registration Page and click on the Register button..</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Enter either "blank username" or "an already existing username" in the registration section of the Student Registration Page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">button on the student registration page of anodiam.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive respective error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character (!, @, #, $, %, ^, &amp;, *, £)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter invalid email address
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. Does not contain exactly one '@' character.
+2. Does not contain one or more '.' characters after the '@' character.
+3. Does not contain any alphabet (a-z, A-Z) before '@'.
+4. Does not contain any alphabet (a-z, A-Z) in between '@' and '.'.
+5. Does not contain any alphabet (a-z, A-Z) after the last '.' character.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in the registration section of the Student Registration Page and click on the Register button..</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter an already existing Anodiam username in the registration section of the Student Registration Page and click on the Register button..</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I cannot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Invalid email address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Enter either "blank username" or "an already existing username" in the registration section of the Student Registration Page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">button on the student registration page of anodiam.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive respective error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Invalid email address</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter already existing Anodiam user email address in the registration section of the Student Registration Page and click on the Register button..</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I cannot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Email address already exists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Enter either "blank username" or "an already existing username" in the registration section of the Student Registration Page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">button on the student registration page of anodiam.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive respective error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Email address already exists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fill up the username and password fields with invalid username or password in the login page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Login </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> I am an unsigned but registered user
 </t>
     </r>
@@ -3203,8 +3928,130 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to view the Anodiam Student Home Page: containing a welcome message with my (first and last) name at the top, a menu bar and a paginated list of courses recommended for me according to my Board, and Class, sans the courses I have already subscribed for (purchased), order by rating and total number of students. On wron userid or password I must be sent back to the login page with a login validation message (wrong user id or password) displayed on top in red</t>
-    </r>
+      <t xml:space="preserve"> I should be able to view the Anodiam Student Home Page: containing a welcome message with my (first and last) name at the top.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned but registered user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I fill up the username and password fields in the login page and click on the Login button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be not able to view the Anodiam Student Home Page. Upon eneteing wrong userid or password I must be sent back to the login page with a login validation message (wrong user id or password) displayed on top in red</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can not log in to anodiam.com and view the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Upon eneteing wrong userid or password I must be sent back to the login page with a login validation message (wrong user id or password) displayed on top in red.</t>
+    </r>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Email Verification of student registration</t>
+  </si>
+  <si>
+    <t>Enabler</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>User registration fields (username, password, email) may contain personal information and must be encrypted at rest and inflight at all times</t>
+  </si>
+  <si>
+    <t>Cyber Security, Non-negotiable</t>
   </si>
 </sst>
 </file>
@@ -3291,7 +4138,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3307,6 +4154,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3366,7 +4219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3414,6 +4267,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3425,6 +4279,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3659,31 +4525,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3754,25 +4620,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="56.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -3798,7 +4664,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>22</v>
@@ -3819,419 +4685,541 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="26">
+        <v>2</v>
+      </c>
+      <c r="J2" s="27">
+        <v>5</v>
+      </c>
+      <c r="K2" s="28">
+        <f t="shared" ref="K2:K19" si="0">IF(I2=0,0,J2/I2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="26">
+        <v>2</v>
+      </c>
+      <c r="J3" s="27">
+        <v>5</v>
+      </c>
+      <c r="K3" s="28">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="26">
+        <v>5</v>
+      </c>
+      <c r="J4" s="27">
+        <v>5</v>
+      </c>
+      <c r="K4" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="25">
+        <v>3.1</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26">
+        <v>3</v>
+      </c>
+      <c r="J5" s="27">
+        <v>5</v>
+      </c>
+      <c r="K5" s="28">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="25">
+        <v>3.2</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="26">
+        <v>3</v>
+      </c>
+      <c r="J6" s="27">
+        <v>5</v>
+      </c>
+      <c r="K6" s="28">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M6" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="25">
+        <v>3.3</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="26">
+        <v>3</v>
+      </c>
+      <c r="J7" s="27">
+        <v>5</v>
+      </c>
+      <c r="K7" s="28">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>3.4</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="26">
+        <v>3</v>
+      </c>
+      <c r="J8" s="27">
+        <v>5</v>
+      </c>
+      <c r="K8" s="28">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M8" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="26">
+        <v>3</v>
+      </c>
+      <c r="J9" s="27">
+        <v>5</v>
+      </c>
+      <c r="K9" s="28">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M9" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
+        <v>3.6</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="26">
+        <v>3</v>
+      </c>
+      <c r="J10" s="27">
+        <v>5</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M10" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="25">
+        <v>4</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="F11" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="26">
+        <v>2</v>
+      </c>
+      <c r="J11" s="27">
+        <v>5</v>
+      </c>
+      <c r="K11" s="28">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
+        <v>5</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="26">
+        <v>5</v>
+      </c>
+      <c r="J12" s="27">
+        <v>5</v>
+      </c>
+      <c r="K12" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M12" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="26">
+        <v>5</v>
+      </c>
+      <c r="J13" s="27">
+        <v>5</v>
+      </c>
+      <c r="K13" s="28">
+        <f t="shared" ref="K13" si="1">IF(I13=0,0,J13/I13)</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="10">
+      <c r="E14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <v>13</v>
+      </c>
+      <c r="J14" s="10">
         <v>5</v>
       </c>
-      <c r="K2" s="11">
-        <f t="shared" ref="K2" si="0">IF(I2=0,0,J2/I2)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="K14" s="11">
+        <f>IF(I14=0,0,J14/I14)</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" ht="229.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" s="18" customFormat="1" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>15</v>
@@ -4240,29 +5228,32 @@
         <v>16</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
+      <c r="K15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" s="18" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>15</v>
@@ -4271,29 +5262,32 @@
         <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>15</v>
@@ -4302,29 +5296,32 @@
         <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>15</v>
@@ -4333,29 +5330,32 @@
         <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
+      <c r="K18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>15</v>
@@ -4364,29 +5364,32 @@
         <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" s="18" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>15</v>
@@ -4395,19 +5398,19 @@
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="10"/>
@@ -4415,9 +5418,9 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>15</v>
@@ -4426,19 +5429,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="10"/>
@@ -4446,9 +5449,9 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>15</v>
@@ -4457,19 +5460,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="10"/>
@@ -4477,9 +5480,9 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" s="18" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>15</v>
@@ -4488,19 +5491,19 @@
         <v>16</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="10"/>
@@ -4508,9 +5511,9 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="18" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>15</v>
@@ -4519,19 +5522,19 @@
         <v>16</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="10"/>
@@ -4539,9 +5542,9 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>15</v>
@@ -4550,19 +5553,19 @@
         <v>16</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="10"/>
@@ -4570,9 +5573,9 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>15</v>
@@ -4581,19 +5584,19 @@
         <v>16</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="10"/>
@@ -4601,9 +5604,9 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>15</v>
@@ -4612,19 +5615,19 @@
         <v>16</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="10"/>
@@ -4632,9 +5635,9 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="18" customFormat="1" ht="318.75" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>15</v>
@@ -4643,19 +5646,19 @@
         <v>16</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="10"/>
@@ -4663,9 +5666,9 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>15</v>
@@ -4674,19 +5677,19 @@
         <v>16</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="10"/>
@@ -4696,7 +5699,7 @@
     </row>
     <row r="30" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>15</v>
@@ -4705,19 +5708,19 @@
         <v>16</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="10"/>
@@ -4725,9 +5728,9 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>15</v>
@@ -4736,19 +5739,19 @@
         <v>16</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="10"/>
@@ -4756,35 +5759,283 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+    <row r="32" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>24</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="I32" s="7"/>
       <c r="J32" s="10"/>
       <c r="K32" s="11"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+    <row r="33" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>25</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="10"/>
       <c r="K33" s="11"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>26</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>27</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>28</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>29</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>30</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>31</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1">
@@ -4793,19 +6044,19 @@
     </sortState>
   </autoFilter>
   <dataValidations xWindow="1023" yWindow="304" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J41">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L41">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I41">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B41">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C41">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="157">
   <si>
     <t>Anodiam</t>
   </si>
@@ -327,67 +327,6 @@
 (Story Points)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I type anodiam.com on a web browser
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to view the Anodiam home page: containing link to register and a login section.</t>
-    </r>
-  </si>
-  <si>
     <t>004MVPStudentAppWireframes.pptx &gt;&gt; Student Login Page</t>
   </si>
   <si>
@@ -439,30 +378,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> of anodiam.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Register for free</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link on the home page of anodiam.com</t>
     </r>
   </si>
   <si>
@@ -3043,6 +2958,135 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">I cannot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character (!, @, #, $, %, ^, &amp;, *, £)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I cannot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Invalid email address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I cannot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Email address already exists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fill up the username and password fields with invalid username or password in the login page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Login </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="10"/>
@@ -3059,6 +3103,222 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> I am an unsigned but registered user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I fill up the username and password fields in the login page and click on the Login button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the Anodiam Student Home Page: containing a welcome message with my (first and last) name at the top.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned but registered user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I fill up the username and password fields in the login page and click on the Login button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be not able to view the Anodiam Student Home Page. Upon eneteing wrong userid or password I must be sent back to the login page with a login validation message (wrong user id or password) displayed on top in red</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can not log in to anodiam.com and view the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Upon eneteing wrong userid or password I must be sent back to the login page with a login validation message (wrong user id or password) displayed on top in red.</t>
+    </r>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Email Verification of student registration</t>
+  </si>
+  <si>
+    <t>Enabler</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>User registration fields (username, password, email) may contain personal information and must be encrypted at rest and inflight at all times</t>
+  </si>
+  <si>
+    <t>Cyber Security, Non-negotiable</t>
+  </si>
+  <si>
+    <t>Unsigned User</t>
+  </si>
+  <si>
+    <t>Password Strength Meter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fill up all the fields: (username, password, confirm oassword, email) (all mandatory) with valid informations in the registration section of the Student Registration Page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button.</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter already existing Anodiam user email address in the registration section of the Student Registration Page and click on the Register button.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> I am an unsigned user
 </t>
     </r>
@@ -3079,7 +3339,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I fill up all the fields: (username, password, email) (all mandatory) in the registration section of the Student Registration Page and click on the </t>
+      <t xml:space="preserve"> I Enter either "blank username" or "an already existing username" in the registration section of the Student Registration Page and click on the </t>
     </r>
     <r>
       <rPr>
@@ -3098,7 +3358,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">button on the student registration page of anodiam.com
+      <t xml:space="preserve">button
 </t>
     </r>
     <r>
@@ -3118,12 +3378,59 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to register myself as a student with anodiam.com. Any mandatory field validation will be showed in red on top. Upon successful registration, I should be directed to the login page with a message of successful registration on top.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Fill up all the fields: (username, password, email) (all mandatory) with valid informations in the registration section of the Student Registration Page and click on the </t>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive respective error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Invalid email address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I enter an already existing username in the Student Registration Page and click on the </t>
     </r>
     <r>
       <rPr>
@@ -3142,143 +3449,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>button.</t>
-    </r>
-  </si>
-  <si>
-    <t>Enter invalid username
-(Less than 8 characters long)
-in the registration section of the Student Registration Page and click on the Register button..</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I cannot </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>register myself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as a student with anodiam.com. I must receive respective error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Username cannot be less than 8 characters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I cannot </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>register myself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as a student with anodiam.com. I must receive respective error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Username already exists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I enter  invalid username (Less than 8 characters long or 
-an already existing username) in the registration section of the Student Registration Page and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Register </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">button on the student registration page of anodiam.com
+      <t xml:space="preserve">button
 </t>
     </r>
     <r>
@@ -3309,253 +3480,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Username cannot be less than 8 characters long</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I enter  invalid username (Less than 8 characters long or 
-an already existing username) in the registration section of the Student Registration Page and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Register </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">button on the student registration page of anodiam.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive respective error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Username already exists.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I cannot </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>register myself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character (!, @, #, $, %, ^, &amp;, *, £)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enter invalid password
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. Less than 8 characters or more than 20 characters
-2. contains the username string within the password
-3. Does not contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character (!, @, #, $, %, ^, &amp;, *, £)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-in the registration section of the Student Registration Page and click on the Register button..</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I Enter either "blank username" or "an already existing username" in the registration section of the Student Registration Page and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Register </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">button on the student registration page of anodiam.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive respective error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character (!, @, #, $, %, ^, &amp;, *, £)</t>
+      <t>Email address already exists</t>
     </r>
   </si>
   <si>
@@ -3585,15 +3510,334 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>in the registration section of the Student Registration Page and click on the Register button..</t>
-    </r>
-  </si>
-  <si>
-    <t>Enter an already existing Anodiam username in the registration section of the Student Registration Page and click on the Register button..</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I cannot </t>
+      <t>in the registration section of the Student Registration Page and click on the Register button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link on the home page of anodiam.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I type anodiam.com on a web browser
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the Anodiam home page: containing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>link to register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>login section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I fill up all the fields: (username, password, confirm oassword, email) (all mandatory) in the registration section of the Student Registration Page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to register myself as a student with anodiam.com. Upon successful registration, I get a  message on top of the registration page saying "Registration Succesful".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I enter  invalid username (Less than 8 characters long or 
+an already existing username) in the registration section of the Student Registration Page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Username cannot be less than 8 characters long</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter invalid username
+(Less than 8 characters long)
+in the registration section of the Student Registration Page and click on the Register button.</t>
+  </si>
+  <si>
+    <t>Enter an already existing Anodiam username in the registration section of the Student Registration Page and click on the Register button.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cannot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -3612,18 +3856,72 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Invalid email address</t>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Username cannot be less than 8 characters</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cannot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Username already exists</t>
     </r>
   </si>
   <si>
@@ -3664,7 +3962,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I Enter either "blank username" or "an already existing username" in the registration section of the Student Registration Page and click on the </t>
+      <t xml:space="preserve"> I enter  invalid username (Less than 8 characters long or 
+an already existing username) in the registration section of the Student Registration Page and click on the </t>
     </r>
     <r>
       <rPr>
@@ -3683,7 +3982,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">button on the student registration page of anodiam.com
+      <t xml:space="preserve">button
 </t>
     </r>
     <r>
@@ -3703,56 +4002,46 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive respective error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Invalid email address</t>
-    </r>
-  </si>
-  <si>
-    <t>Enter already existing Anodiam user email address in the registration section of the Student Registration Page and click on the Register button..</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I cannot </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>register myself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Email address already exists</t>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Username already exists.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter invalid password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Less than 8 characters or more than 20 characters
+2. contains the username string within the password
+3. Does not contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character (!, @, #, $, %, ^, &amp;, *, £)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+in the registration section of the Student Registration Page and click on the Register button.</t>
     </r>
   </si>
   <si>
@@ -3793,26 +4082,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I Enter either "blank username" or "an already existing username" in the registration section of the Student Registration Page and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Register </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">button on the student registration page of anodiam.com
+      <t xml:space="preserve"> I enter  invalid password
+1. Less than 8 characters or more than 20 characters
+2. contains the username string within the password
+3. Does not contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character (!, @, #, $, %, ^, &amp;, *, £)
+in the registration section of the Student Registration Page and click on the Register button.
 </t>
     </r>
     <r>
@@ -3832,43 +4106,25 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive respective error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Email address already exists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Fill up the username and password fields with invalid username or password in the login page and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Login </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>button.</t>
-    </r>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character (!, @, #, $, %, ^, &amp;, *, £)</t>
+    </r>
+  </si>
+  <si>
+    <t>I cannot register myself as a student with anodiam.com. I must receive following error message: Password and Confirm Password fields do not match.</t>
+  </si>
+  <si>
+    <t>Enter wrong Confirm Password in the Student Registration Page and click on the Register button.</t>
   </si>
   <si>
     <r>
@@ -3888,7 +4144,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I am an unsigned but registered user
+      <t xml:space="preserve"> I am an unsigned user
 </t>
     </r>
     <r>
@@ -3908,7 +4164,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I fill up the username and password fields in the login page and click on the Login button
+      <t xml:space="preserve"> I enter wrong Confirm Password in the Student Registration Page and click on the Register button.
 </t>
     </r>
     <r>
@@ -3928,130 +4184,19 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to view the Anodiam Student Home Page: containing a welcome message with my (first and last) name at the top.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned but registered user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I fill up the username and password fields in the login page and click on the Login button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be not able to view the Anodiam Student Home Page. Upon eneteing wrong userid or password I must be sent back to the login page with a login validation message (wrong user id or password) displayed on top in red</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can not log in to anodiam.com and view the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Student Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Upon eneteing wrong userid or password I must be sent back to the login page with a login validation message (wrong user id or password) displayed on top in red.</t>
-    </r>
-  </si>
-  <si>
-    <t>Scheduled</t>
-  </si>
-  <si>
-    <t>Email Verification of student registration</t>
-  </si>
-  <si>
-    <t>Enabler</t>
-  </si>
-  <si>
-    <t>Epic</t>
-  </si>
-  <si>
-    <t>User registration fields (username, password, email) may contain personal information and must be encrypted at rest and inflight at all times</t>
-  </si>
-  <si>
-    <t>Cyber Security, Non-negotiable</t>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Password and Confirm Password fields do not match.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4219,7 +4364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4268,17 +4413,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4291,6 +4426,17 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4525,31 +4671,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="A2" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -4620,11 +4766,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4644,7 +4790,7 @@
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -4664,7 +4810,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>22</v>
@@ -4686,608 +4832,614 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="26" t="s">
+      <c r="D2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="26">
+      <c r="I2" s="22">
         <v>2</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="23">
         <v>5</v>
       </c>
-      <c r="K2" s="28">
-        <f t="shared" ref="K2:K19" si="0">IF(I2=0,0,J2/I2)</f>
+      <c r="K2" s="24">
+        <f t="shared" ref="K2:K21" si="0">IF(I2=0,0,J2/I2)</f>
         <v>2.5</v>
       </c>
-      <c r="L2" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" s="25">
+      <c r="L2" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="22">
+        <v>1</v>
+      </c>
+      <c r="J3" s="23">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="22">
+        <v>5</v>
+      </c>
+      <c r="J4" s="23">
+        <v>5</v>
+      </c>
+      <c r="K4" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>3.1</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22">
+        <v>3</v>
+      </c>
+      <c r="J5" s="23">
+        <v>5</v>
+      </c>
+      <c r="K5" s="24">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="22">
+        <v>3</v>
+      </c>
+      <c r="J6" s="23">
+        <v>5</v>
+      </c>
+      <c r="K6" s="24">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>3.3</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="22">
+        <v>3</v>
+      </c>
+      <c r="J7" s="23">
+        <v>5</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>3.4</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="22">
+        <v>3</v>
+      </c>
+      <c r="J8" s="23">
+        <v>5</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="22">
+        <v>3</v>
+      </c>
+      <c r="J9" s="23">
+        <v>5</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="19" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
+        <v>3.6</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="22">
+        <v>3</v>
+      </c>
+      <c r="J10" s="23">
+        <v>5</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="20" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <v>3.7</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="22">
+        <v>2</v>
+      </c>
+      <c r="J11" s="23">
+        <v>3</v>
+      </c>
+      <c r="K11" s="24">
+        <f>IF(I11=0,0,J11/I11)</f>
+        <v>1.5</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
+        <v>4</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="26" t="s">
+      <c r="H12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I12" s="22">
         <v>2</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J12" s="23">
         <v>5</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K12" s="24">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="L3" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="M3" s="25">
+      <c r="L12" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
+    <row r="13" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="21">
+        <v>5</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="26">
+      <c r="C13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="22">
         <v>5</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J13" s="23">
         <v>5</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K13" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L4" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="M4" s="25">
+      <c r="L13" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
-        <v>3.1</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="25" t="s">
+    <row r="14" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26">
-        <v>3</v>
-      </c>
-      <c r="J5" s="27">
+      <c r="D14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="22">
         <v>5</v>
       </c>
-      <c r="K5" s="28">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="M5" s="25">
+      <c r="J14" s="23">
+        <v>5</v>
+      </c>
+      <c r="K14" s="24">
+        <f t="shared" ref="K14" si="1">IF(I14=0,0,J14/I14)</f>
         <v>1</v>
       </c>
+      <c r="L14" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" s="21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
-        <v>3.2</v>
-      </c>
-      <c r="B6" s="25" t="s">
+    <row r="15" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="26">
-        <v>3</v>
-      </c>
-      <c r="J6" s="27">
+      <c r="C15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7">
+        <v>13</v>
+      </c>
+      <c r="J15" s="10">
         <v>5</v>
       </c>
-      <c r="K6" s="28">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="M6" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
-        <v>3.3</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="26">
-        <v>3</v>
-      </c>
-      <c r="J7" s="27">
-        <v>5</v>
-      </c>
-      <c r="K7" s="28">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="M7" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
-        <v>3.4</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="26">
-        <v>3</v>
-      </c>
-      <c r="J8" s="27">
-        <v>5</v>
-      </c>
-      <c r="K8" s="28">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="M8" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
-        <v>3.5</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="26">
-        <v>3</v>
-      </c>
-      <c r="J9" s="27">
-        <v>5</v>
-      </c>
-      <c r="K9" s="28">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="M9" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
-        <v>3.6</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="26">
-        <v>3</v>
-      </c>
-      <c r="J10" s="27">
-        <v>5</v>
-      </c>
-      <c r="K10" s="28">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="M10" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
-        <v>4</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="26">
-        <v>2</v>
-      </c>
-      <c r="J11" s="27">
-        <v>5</v>
-      </c>
-      <c r="K11" s="28">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="M11" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
-        <v>5</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="26">
-        <v>5</v>
-      </c>
-      <c r="J12" s="27">
-        <v>5</v>
-      </c>
-      <c r="K12" s="28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="M12" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="26">
-        <v>5</v>
-      </c>
-      <c r="J13" s="27">
-        <v>5</v>
-      </c>
-      <c r="K13" s="28">
-        <f t="shared" ref="K13" si="1">IF(I13=0,0,J13/I13)</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="M13" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7">
-        <v>13</v>
-      </c>
-      <c r="J14" s="10">
-        <v>5</v>
-      </c>
-      <c r="K14" s="11">
-        <f>IF(I14=0,0,J14/I14)</f>
+      <c r="K15" s="11">
+        <f>IF(I15=0,0,J15/I15)</f>
         <v>0.38461538461538464</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>7</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>8</v>
-      </c>
-      <c r="B16" s="7" t="s">
+        <v>6.2</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7">
+        <v>5</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
       <c r="K16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(I16=0,0,J16/I16)</f>
+        <v>0.2</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>15</v>
@@ -5296,19 +5448,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="10"/>
@@ -5319,9 +5471,9 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>15</v>
@@ -5330,19 +5482,19 @@
         <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="F18" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="10"/>
@@ -5355,7 +5507,7 @@
     </row>
     <row r="19" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>15</v>
@@ -5364,19 +5516,19 @@
         <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="10"/>
@@ -5387,9 +5539,9 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>15</v>
@@ -5398,29 +5550,32 @@
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>15</v>
@@ -5429,29 +5584,32 @@
         <v>16</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>15</v>
@@ -5460,19 +5618,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="10"/>
@@ -5480,9 +5638,9 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>15</v>
@@ -5491,19 +5649,19 @@
         <v>16</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="10"/>
@@ -5511,9 +5669,9 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>15</v>
@@ -5522,19 +5680,19 @@
         <v>16</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="10"/>
@@ -5542,9 +5700,9 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>15</v>
@@ -5553,19 +5711,19 @@
         <v>16</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="10"/>
@@ -5573,9 +5731,9 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>15</v>
@@ -5584,19 +5742,19 @@
         <v>16</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="10"/>
@@ -5604,9 +5762,9 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>15</v>
@@ -5615,19 +5773,19 @@
         <v>16</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="10"/>
@@ -5635,9 +5793,9 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="18" customFormat="1" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>15</v>
@@ -5646,19 +5804,19 @@
         <v>16</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="10"/>
@@ -5666,9 +5824,9 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>15</v>
@@ -5677,19 +5835,19 @@
         <v>16</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="10"/>
@@ -5697,9 +5855,9 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="18" customFormat="1" ht="318.75" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>15</v>
@@ -5708,19 +5866,19 @@
         <v>16</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="10"/>
@@ -5728,9 +5886,9 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>15</v>
@@ -5739,19 +5897,19 @@
         <v>16</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="10"/>
@@ -5759,9 +5917,9 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>15</v>
@@ -5770,19 +5928,19 @@
         <v>16</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="10"/>
@@ -5790,9 +5948,9 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>15</v>
@@ -5801,19 +5959,19 @@
         <v>16</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="10"/>
@@ -5821,9 +5979,9 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>15</v>
@@ -5832,19 +5990,19 @@
         <v>16</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="10"/>
@@ -5852,9 +6010,9 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>15</v>
@@ -5863,19 +6021,19 @@
         <v>16</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="10"/>
@@ -5883,9 +6041,9 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>15</v>
@@ -5894,19 +6052,19 @@
         <v>16</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="10"/>
@@ -5916,7 +6074,7 @@
     </row>
     <row r="37" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>15</v>
@@ -5925,19 +6083,19 @@
         <v>16</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="10"/>
@@ -5947,7 +6105,7 @@
     </row>
     <row r="38" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>15</v>
@@ -5956,19 +6114,19 @@
         <v>16</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="10"/>
@@ -5976,9 +6134,9 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>15</v>
@@ -5987,19 +6145,19 @@
         <v>16</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="10"/>
@@ -6007,35 +6165,97 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+    <row r="40" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>30</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="I40" s="7"/>
       <c r="J40" s="10"/>
       <c r="K40" s="11"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+    <row r="41" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>31</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="I41" s="7"/>
       <c r="J41" s="10"/>
       <c r="K41" s="11"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+    </row>
+    <row r="43" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1">
@@ -6044,19 +6264,19 @@
     </sortState>
   </autoFilter>
   <dataValidations xWindow="1023" yWindow="304" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J43">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L43">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I43">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B43">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C43">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -2988,41 +2988,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character (!, @, #, $, %, ^, &amp;, *, £)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I cannot </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>register myself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Invalid email address</t>
     </r>
   </si>
@@ -4017,6 +3982,84 @@
     </r>
   </si>
   <si>
+    <t>I cannot register myself as a student with anodiam.com. I must receive following error message: Password and Confirm Password fields do not match.</t>
+  </si>
+  <si>
+    <t>Enter wrong Confirm Password in the Student Registration Page and click on the Register button.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I enter wrong Confirm Password in the Student Registration Page and click on the Register button.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Password and Confirm Password fields do not match.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Enter invalid password
 </t>
@@ -4031,7 +4074,7 @@
       </rPr>
       <t>1. Less than 8 characters or more than 20 characters
 2. contains the username string within the password
-3. Does not contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character (!, @, #, $, %, ^, &amp;, *, £)</t>
+3. Does not contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)</t>
     </r>
     <r>
       <rPr>
@@ -4042,6 +4085,41 @@
       </rPr>
       <t xml:space="preserve">
 in the registration section of the Student Registration Page and click on the Register button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I cannot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)</t>
     </r>
   </si>
   <si>
@@ -4085,7 +4163,7 @@
       <t xml:space="preserve"> I enter  invalid password
 1. Less than 8 characters or more than 20 characters
 2. contains the username string within the password
-3. Does not contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character (!, @, #, $, %, ^, &amp;, *, £)
+3. Does not contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)
 in the registration section of the Student Registration Page and click on the Register button.
 </t>
     </r>
@@ -4117,85 +4195,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character (!, @, #, $, %, ^, &amp;, *, £)</t>
-    </r>
-  </si>
-  <si>
-    <t>I cannot register myself as a student with anodiam.com. I must receive following error message: Password and Confirm Password fields do not match.</t>
-  </si>
-  <si>
-    <t>Enter wrong Confirm Password in the Student Registration Page and click on the Register button.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I enter wrong Confirm Password in the Student Registration Page and click on the Register button.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Password and Confirm Password fields do not match.</t>
+      <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)</t>
     </r>
   </si>
 </sst>
@@ -4769,8 +4769,8 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4851,7 +4851,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>25</v>
@@ -4867,7 +4867,7 @@
         <v>2.5</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M2" s="21">
         <v>1</v>
@@ -4887,7 +4887,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>29</v>
@@ -4909,7 +4909,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M3" s="21">
         <v>1</v>
@@ -4923,19 +4923,19 @@
         <v>15</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>26</v>
@@ -4951,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M4" s="21">
         <v>1</v>
@@ -4962,7 +4962,7 @@
         <v>3.1</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>16</v>
@@ -4970,10 +4970,10 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22">
@@ -4987,7 +4987,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M5" s="21">
         <v>1</v>
@@ -5007,13 +5007,13 @@
         <v>31</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>26</v>
@@ -5029,7 +5029,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M6" s="21">
         <v>1</v>
@@ -5049,13 +5049,13 @@
         <v>31</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F7" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>151</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>26</v>
@@ -5071,7 +5071,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M7" s="21">
         <v>1</v>
@@ -5091,13 +5091,13 @@
         <v>31</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>26</v>
@@ -5113,7 +5113,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M8" s="21">
         <v>1</v>
@@ -5133,13 +5133,13 @@
         <v>31</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>26</v>
@@ -5155,7 +5155,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M9" s="21">
         <v>1</v>
@@ -5175,13 +5175,13 @@
         <v>31</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>26</v>
@@ -5197,7 +5197,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M10" s="21">
         <v>1</v>
@@ -5214,16 +5214,16 @@
         <v>16</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>26</v>
@@ -5239,7 +5239,7 @@
         <v>1.5</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M11" s="21">
         <v>1</v>
@@ -5281,7 +5281,7 @@
         <v>2.5</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M12" s="21">
         <v>1</v>
@@ -5307,7 +5307,7 @@
         <v>39</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>25</v>
@@ -5323,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M13" s="21">
         <v>1</v>
@@ -5343,13 +5343,13 @@
         <v>34</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>25</v>
@@ -5365,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M14" s="21">
         <v>1</v>
@@ -5379,13 +5379,13 @@
         <v>15</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -5416,10 +5416,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -16,7 +16,7 @@
     <sheet name="MVPProductBacklog" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MVPProductBacklog!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MVPProductBacklog!$A$1:$M$43</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="163">
   <si>
     <t>Anodiam</t>
   </si>
@@ -4196,6 +4196,140 @@
         <family val="2"/>
       </rPr>
       <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)</t>
+    </r>
+  </si>
+  <si>
+    <t>Try to copy or paste in the Password field of the Login page</t>
+  </si>
+  <si>
+    <t>Try to copy or paste in the Password or Confirm Pasword fields of the Registration page</t>
+  </si>
+  <si>
+    <t>I am not allowed to Copy or paste in the Password field of the Login page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Try to copy or paste in the Password or Confirm Pasword fields of the Registration page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am not allowed to Copy or paste in the Password or Confirm Pasword fields of the Registration page.</t>
+    </r>
+  </si>
+  <si>
+    <t>I am not allowed to Copy or paste in the Password or Confirm Pasword fields of the Registration page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Try to copy or paste in the Password field of the Login page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am not allowed to Copy or paste in the Password field of the Login page.</t>
     </r>
   </si>
 </sst>
@@ -4364,7 +4498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4426,6 +4560,7 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4671,31 +4806,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -4766,11 +4901,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4863,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="24">
-        <f t="shared" ref="K2:K21" si="0">IF(I2=0,0,J2/I2)</f>
+        <f t="shared" ref="K2:K23" si="0">IF(I2=0,0,J2/I2)</f>
         <v>2.5</v>
       </c>
       <c r="L2" s="21" t="s">
@@ -5245,269 +5380,277 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+    <row r="12" spans="1:13" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11">
+        <f>IF(I12=0,0,J12/I12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1</v>
+      </c>
+      <c r="K13" s="11">
+        <f>IF(I13=0,0,J13/I13)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
         <v>4</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F14" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I14" s="22">
         <v>2</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J14" s="23">
         <v>5</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K14" s="24">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L14" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M14" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+    <row r="15" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="21">
         <v>5</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G15" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I15" s="22">
         <v>5</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J15" s="23">
         <v>5</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K15" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L15" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M15" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+    <row r="16" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="21">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D16" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F16" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G16" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I16" s="22">
         <v>5</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J16" s="23">
         <v>5</v>
       </c>
-      <c r="K14" s="24">
-        <f t="shared" ref="K14" si="1">IF(I14=0,0,J14/I14)</f>
+      <c r="K16" s="24">
+        <f t="shared" ref="K16" si="1">IF(I16=0,0,J16/I16)</f>
         <v>1</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L16" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M16" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+    <row r="17" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>6</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7">
         <v>13</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J17" s="10">
         <v>5</v>
       </c>
-      <c r="K15" s="11">
-        <f>IF(I15=0,0,J15/I15)</f>
+      <c r="K17" s="11">
+        <f>IF(I17=0,0,J17/I17)</f>
         <v>0.38461538461538464</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>6.2</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7">
-        <v>5</v>
-      </c>
-      <c r="J16" s="10">
-        <v>1</v>
-      </c>
-      <c r="K16" s="11">
-        <f>IF(I16=0,0,J16/I16)</f>
-        <v>0.2</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>7</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>8</v>
-      </c>
-      <c r="B18" s="7" t="s">
+        <v>6.2</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7">
+        <v>5</v>
+      </c>
+      <c r="J18" s="10">
+        <v>1</v>
+      </c>
       <c r="K18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(I18=0,0,J18/I18)</f>
+        <v>0.2</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>15</v>
@@ -5519,16 +5662,16 @@
         <v>36</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="10"/>
@@ -5539,9 +5682,9 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>15</v>
@@ -5553,16 +5696,16 @@
         <v>36</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="10"/>
@@ -5575,7 +5718,7 @@
     </row>
     <row r="21" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>15</v>
@@ -5587,13 +5730,13 @@
         <v>36</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>43</v>
@@ -5607,9 +5750,9 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>15</v>
@@ -5621,26 +5764,29 @@
         <v>36</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>15</v>
@@ -5652,26 +5798,29 @@
         <v>36</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>15</v>
@@ -5683,13 +5832,13 @@
         <v>36</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>51</v>
@@ -5700,9 +5849,9 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>15</v>
@@ -5714,16 +5863,16 @@
         <v>36</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="10"/>
@@ -5731,9 +5880,9 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>15</v>
@@ -5745,16 +5894,16 @@
         <v>36</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="10"/>
@@ -5762,9 +5911,9 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>15</v>
@@ -5776,16 +5925,16 @@
         <v>36</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="10"/>
@@ -5793,9 +5942,9 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>15</v>
@@ -5807,16 +5956,16 @@
         <v>36</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="10"/>
@@ -5824,9 +5973,9 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>15</v>
@@ -5838,16 +5987,16 @@
         <v>36</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="10"/>
@@ -5855,9 +6004,9 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="18" customFormat="1" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>15</v>
@@ -5869,16 +6018,16 @@
         <v>36</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="10"/>
@@ -5886,9 +6035,9 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>15</v>
@@ -5900,16 +6049,16 @@
         <v>36</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="10"/>
@@ -5917,9 +6066,9 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="18" customFormat="1" ht="318.75" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>15</v>
@@ -5931,13 +6080,13 @@
         <v>36</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>85</v>
@@ -5948,9 +6097,9 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>15</v>
@@ -5962,13 +6111,13 @@
         <v>36</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>85</v>
@@ -5979,9 +6128,9 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>15</v>
@@ -5993,13 +6142,13 @@
         <v>36</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>85</v>
@@ -6010,9 +6159,9 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>15</v>
@@ -6024,13 +6173,13 @@
         <v>36</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>85</v>
@@ -6041,9 +6190,9 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>15</v>
@@ -6055,13 +6204,13 @@
         <v>36</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>85</v>
@@ -6072,9 +6221,9 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>15</v>
@@ -6086,13 +6235,13 @@
         <v>36</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>85</v>
@@ -6103,9 +6252,9 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>15</v>
@@ -6117,13 +6266,13 @@
         <v>36</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>85</v>
@@ -6136,7 +6285,7 @@
     </row>
     <row r="39" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>15</v>
@@ -6148,13 +6297,13 @@
         <v>36</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>85</v>
@@ -6167,7 +6316,7 @@
     </row>
     <row r="40" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>15</v>
@@ -6179,13 +6328,13 @@
         <v>36</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>85</v>
@@ -6196,9 +6345,9 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>15</v>
@@ -6210,13 +6359,13 @@
         <v>36</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>85</v>
@@ -6227,56 +6376,118 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+    <row r="42" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>30</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="I42" s="7"/>
       <c r="J42" s="10"/>
       <c r="K42" s="11"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+    <row r="43" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>31</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="I43" s="7"/>
       <c r="J43" s="10"/>
       <c r="K43" s="11"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
+    <row r="44" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M1">
+  <autoFilter ref="A1:M43">
     <sortState ref="A2:O24">
       <sortCondition ref="K1"/>
     </sortState>
   </autoFilter>
   <dataValidations xWindow="1023" yWindow="304" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J45">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L45">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I45">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B45">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C45">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="163">
   <si>
     <t>Anodiam</t>
   </si>
@@ -3240,30 +3240,6 @@
     <t>Password Strength Meter</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Fill up all the fields: (username, password, confirm oassword, email) (all mandatory) with valid informations in the registration section of the Student Registration Page and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Register </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>button.</t>
-    </r>
-  </si>
-  <si>
     <t>Enter already existing Anodiam user email address in the registration section of the Student Registration Page and click on the Register button.</t>
   </si>
   <si>
@@ -3639,86 +3615,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I fill up all the fields: (username, password, confirm oassword, email) (all mandatory) in the registration section of the Student Registration Page and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Register </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to register myself as a student with anodiam.com. Upon successful registration, I get a  message on top of the registration page saying "Registration Succesful".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> I enter  invalid username (Less than 8 characters long or 
 an already existing username) in the registration section of the Student Registration Page and click on the </t>
     </r>
@@ -4060,6 +3956,140 @@
     </r>
   </si>
   <si>
+    <t>Try to copy or paste in the Password field of the Login page</t>
+  </si>
+  <si>
+    <t>Try to copy or paste in the Password or Confirm Pasword fields of the Registration page</t>
+  </si>
+  <si>
+    <t>I am not allowed to Copy or paste in the Password field of the Login page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Try to copy or paste in the Password or Confirm Pasword fields of the Registration page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am not allowed to Copy or paste in the Password or Confirm Pasword fields of the Registration page.</t>
+    </r>
+  </si>
+  <si>
+    <t>I am not allowed to Copy or paste in the Password or Confirm Pasword fields of the Registration page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Try to copy or paste in the Password field of the Login page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am not allowed to Copy or paste in the Password field of the Login page.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Enter invalid password
 </t>
@@ -4073,7 +4103,7 @@
         <family val="2"/>
       </rPr>
       <t>1. Less than 8 characters or more than 20 characters
-2. contains the username string within the password
+2. contains the username string or email string within the password
 3. Does not contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)</t>
     </r>
     <r>
@@ -4119,7 +4149,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)</t>
+      <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username or email and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)</t>
     </r>
   </si>
   <si>
@@ -4162,7 +4192,7 @@
       </rPr>
       <t xml:space="preserve"> I enter  invalid password
 1. Less than 8 characters or more than 20 characters
-2. contains the username string within the password
+2. contains the username string  or email string within the password
 3. Does not contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)
 in the registration section of the Student Registration Page and click on the Register button.
 </t>
@@ -4195,17 +4225,32 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)</t>
-    </r>
-  </si>
-  <si>
-    <t>Try to copy or paste in the Password field of the Login page</t>
-  </si>
-  <si>
-    <t>Try to copy or paste in the Password or Confirm Pasword fields of the Registration page</t>
-  </si>
-  <si>
-    <t>I am not allowed to Copy or paste in the Password field of the Login page</t>
+      <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username or email and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fill up all the fields: (username, password, confirm password, email) (all mandatory) with valid informations in the registration section of the Student Registration Page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4245,7 +4290,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Try to copy or paste in the Password or Confirm Pasword fields of the Registration page.
+      <t xml:space="preserve"> I fill up all the fields: (username, password, confirm password, email) (all mandatory) in the registration section of the Student Registration Page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">button
 </t>
     </r>
     <r>
@@ -4265,71 +4329,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I am not allowed to Copy or paste in the Password or Confirm Pasword fields of the Registration page.</t>
-    </r>
-  </si>
-  <si>
-    <t>I am not allowed to Copy or paste in the Password or Confirm Pasword fields of the Registration page</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Try to copy or paste in the Password field of the Login page.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am not allowed to Copy or paste in the Password field of the Login page.</t>
+      <t xml:space="preserve"> I should be able to register myself as a student with anodiam.com. Upon successful registration, I get a  message on top of the registration page saying "Registration Succesful".</t>
     </r>
   </si>
 </sst>
@@ -4904,8 +4904,8 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4986,7 +4986,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>25</v>
@@ -5022,7 +5022,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>29</v>
@@ -5064,13 +5064,13 @@
         <v>31</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>26</v>
@@ -5142,13 +5142,13 @@
         <v>31</v>
       </c>
       <c r="E6" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>148</v>
-      </c>
       <c r="G6" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>26</v>
@@ -5184,13 +5184,13 @@
         <v>31</v>
       </c>
       <c r="E7" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>149</v>
-      </c>
       <c r="G7" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>26</v>
@@ -5212,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>3.4</v>
       </c>
@@ -5226,13 +5226,13 @@
         <v>31</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>26</v>
@@ -5268,13 +5268,13 @@
         <v>31</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>123</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>26</v>
@@ -5310,13 +5310,13 @@
         <v>31</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>124</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>26</v>
@@ -5352,13 +5352,13 @@
         <v>135</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F11" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>151</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>153</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>26</v>
@@ -5381,80 +5381,88 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="21">
         <v>3.8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="E12" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="22">
         <v>2</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="23">
         <v>1</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="24">
         <f>IF(I12=0,0,J12/I12)</f>
         <v>0.5</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="L12" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:13" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="21">
         <v>3.8</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="22">
         <v>2</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="23">
         <v>1</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="24">
         <f>IF(I13=0,0,J13/I13)</f>
         <v>0.5</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="L13" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A14" s="21">

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -4417,7 +4417,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4439,6 +4439,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4498,7 +4504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4572,6 +4578,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4904,8 +4913,8 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5069,7 +5078,7 @@
       <c r="F4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="31" t="s">
         <v>162</v>
       </c>
       <c r="H4" s="22" t="s">
@@ -5107,7 +5116,7 @@
       <c r="F5" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="31" t="s">
         <v>133</v>
       </c>
       <c r="H5" s="22"/>
@@ -5147,7 +5156,7 @@
       <c r="F6" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="31" t="s">
         <v>143</v>
       </c>
       <c r="H6" s="22" t="s">
@@ -5189,7 +5198,7 @@
       <c r="F7" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="31" t="s">
         <v>148</v>
       </c>
       <c r="H7" s="22" t="s">
@@ -5231,7 +5240,7 @@
       <c r="F8" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="31" t="s">
         <v>160</v>
       </c>
       <c r="H8" s="22" t="s">
@@ -5273,7 +5282,7 @@
       <c r="F9" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="31" t="s">
         <v>138</v>
       </c>
       <c r="H9" s="22" t="s">
@@ -5315,7 +5324,7 @@
       <c r="F10" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="31" t="s">
         <v>139</v>
       </c>
       <c r="H10" s="22" t="s">
@@ -5357,7 +5366,7 @@
       <c r="F11" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="31" t="s">
         <v>151</v>
       </c>
       <c r="H11" s="22" t="s">
@@ -5399,7 +5408,7 @@
       <c r="F12" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="31" t="s">
         <v>155</v>
       </c>
       <c r="H12" s="22" t="s">
@@ -5441,7 +5450,7 @@
       <c r="F13" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="31" t="s">
         <v>157</v>
       </c>
       <c r="H13" s="22" t="s">

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -16,7 +16,7 @@
     <sheet name="MVPProductBacklog" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MVPProductBacklog!$A$1:$M$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MVPProductBacklog!$A$1:$M$47</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="183">
   <si>
     <t>Anodiam</t>
   </si>
@@ -331,30 +331,6 @@
   </si>
   <si>
     <t>004MVPStudentAppWireframes.pptx &gt;&gt; Student Registration Page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>register myself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as a student with anodiam.com</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2958,76 +2934,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">I cannot </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>register myself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Invalid email address</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I cannot </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>register myself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Email address already exists</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Fill up the username and password fields with invalid username or password in the login page and click on the </t>
     </r>
     <r>
@@ -3241,188 +3147,6 @@
   </si>
   <si>
     <t>Enter already existing Anodiam user email address in the registration section of the Student Registration Page and click on the Register button.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I Enter either "blank username" or "an already existing username" in the registration section of the Student Registration Page and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Register </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive respective error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Invalid email address</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I enter an already existing username in the Student Registration Page and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Register </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive respective error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Email address already exists</t>
-    </r>
   </si>
   <si>
     <r>
@@ -3578,98 +3302,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I enter  invalid username (Less than 8 characters long or 
-an already existing username) in the registration section of the Student Registration Page and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Register </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Username cannot be less than 8 characters long</t>
-    </r>
-  </si>
-  <si>
     <t>Enter invalid username
 (Less than 8 characters long)
 in the registration section of the Student Registration Page and click on the Register button.</t>
@@ -3678,112 +3310,10 @@
     <t>Enter an already existing Anodiam username in the registration section of the Student Registration Page and click on the Register button.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>cannot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>register myself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as a student with anodiam.com. I must receive error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Username cannot be less than 8 characters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>cannot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>register myself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as a student with anodiam.com. I must receive error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Username already exists</t>
-    </r>
+    <t>I cannot register myself as a student with anodiam.com. I must receive following error message: Password and Confirm Password fields do not match.</t>
+  </si>
+  <si>
+    <t>Enter wrong Confirm Password in the Student Registration Page and click on the Register button.</t>
   </si>
   <si>
     <r>
@@ -3823,8 +3353,177 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I enter  invalid username (Less than 8 characters long or 
-an already existing username) in the registration section of the Student Registration Page and click on the </t>
+      <t xml:space="preserve"> I enter wrong Confirm Password in the Student Registration Page and click on the Register button.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Password and Confirm Password fields do not match.</t>
+    </r>
+  </si>
+  <si>
+    <t>Try to copy or paste in the Password field of the Login page</t>
+  </si>
+  <si>
+    <t>Try to copy or paste in the Password or Confirm Pasword fields of the Registration page</t>
+  </si>
+  <si>
+    <t>I am not allowed to Copy or paste in the Password field of the Login page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Try to copy or paste in the Password or Confirm Pasword fields of the Registration page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am not allowed to Copy or paste in the Password or Confirm Pasword fields of the Registration page.</t>
+    </r>
+  </si>
+  <si>
+    <t>I am not allowed to Copy or paste in the Password or Confirm Pasword fields of the Registration page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Try to copy or paste in the Password field of the Login page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am not allowed to Copy or paste in the Password field of the Login page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fill up all the fields: (username, password, confirm password, email) (all mandatory) with valid informations in the registration section of the Student Registration Page and click on the </t>
     </r>
     <r>
       <rPr>
@@ -3843,251 +3542,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Username already exists.</t>
-    </r>
-  </si>
-  <si>
-    <t>I cannot register myself as a student with anodiam.com. I must receive following error message: Password and Confirm Password fields do not match.</t>
-  </si>
-  <si>
-    <t>Enter wrong Confirm Password in the Student Registration Page and click on the Register button.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I enter wrong Confirm Password in the Student Registration Page and click on the Register button.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Password and Confirm Password fields do not match.</t>
-    </r>
-  </si>
-  <si>
-    <t>Try to copy or paste in the Password field of the Login page</t>
-  </si>
-  <si>
-    <t>Try to copy or paste in the Password or Confirm Pasword fields of the Registration page</t>
-  </si>
-  <si>
-    <t>I am not allowed to Copy or paste in the Password field of the Login page</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Try to copy or paste in the Password or Confirm Pasword fields of the Registration page.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am not allowed to Copy or paste in the Password or Confirm Pasword fields of the Registration page.</t>
-    </r>
-  </si>
-  <si>
-    <t>I am not allowed to Copy or paste in the Password or Confirm Pasword fields of the Registration page</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Try to copy or paste in the Password field of the Login page.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am not allowed to Copy or paste in the Password field of the Login page.</t>
-    </r>
+      <t>button.</t>
+    </r>
+  </si>
+  <si>
+    <t>3.4.1</t>
   </si>
   <si>
     <r>
@@ -4102,9 +3561,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1. Less than 8 characters or more than 20 characters
-2. contains the username string or email string within the password
-3. Does not contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)</t>
+      <t>Less than 8 characters</t>
     </r>
     <r>
       <rPr>
@@ -4149,7 +3606,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username or email and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)</t>
+      <t>Student registration failure! Invalid password. Password should be 8 to 20 characters long.</t>
     </r>
   </si>
   <si>
@@ -4190,11 +3647,1042 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> I enter  invalid password </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Less than 8 characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+in the registration section of the Student Registration Page and click on the Register button.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration failure! Invalid password. Password should be 8 to 20 characters long.</t>
+    </r>
+  </si>
+  <si>
+    <t>3.4.2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I enter  invalid password </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>More than 20 characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+in the registration section of the Student Registration Page and click on the Register button.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration failure! Invalid password. Password should be 8 to 20 characters long.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter invalid password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>More than 20 characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+in the registration section of the Student Registration Page and click on the Register button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Enter invalid password that</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> contains the username string within the password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in the registration section of the Student Registration Page and click on the Register button.</t>
+    </r>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. Upon successful registration, I get a  message on top of the registration page saying </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration successful!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I fill up all the fields: (username, password, confirm password, email) (all mandatory) in the registration section of the Student Registration Page with valid inputs and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to register myself as a student with anodiam.com. Upon successful registration, I get a  message on top of the registration page saying </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration successful!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cannot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration failure! This username is already taken by another user. Please try some other username.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I enter  invalid username (an already existing username) in the registration section of the Student Registration Page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration failure! This username is already taken by another user. Please try some other username.</t>
+    </r>
+  </si>
+  <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <t>Enter blank username
+in the registration section of the Student Registration Page and click on the Register button.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cannot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration failure! Username should be 8 or more characters long.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I enter  invalid username (Less than 8 characters long) in the registration section of the Student Registration Page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration failure! Username should be 8 or more characters long.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cannot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration failure! Username cannot be blank.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I enter blank username in the registration section of the Student Registration Page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration failure! Username cannot be blank.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I cannot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration failure! Invalid password. Password should not contain your username.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I enter  invalid password that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">contains the username string within the password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">in the registration section of the Student Registration Page and click on the Register button.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration failure! Invalid password. Password should not contain your username.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter invalid password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Does not contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+in the registration section of the Student Registration Page and click on the Register button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I cannot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration failure! Invalid password. Password must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z),at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> I enter  invalid password
-1. Less than 8 characters or more than 20 characters
-2. contains the username string  or email string within the password
-3. Does not contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)
-in the registration section of the Student Registration Page and click on the Register button.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Does not contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">in the registration section of the Student Registration Page and click on the Register button.
 </t>
     </r>
     <r>
@@ -4225,12 +4713,89 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Invalid password. Password must be 8 to 20 characters long, must not contain your username or email and must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z), at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Fill up all the fields: (username, password, confirm password, email) (all mandatory) with valid informations in the registration section of the Student Registration Page and click on the </t>
+      <t>Student registration failure! Invalid password. Password must contain at least one small alphabet (a-z), at least one capital alphabet (A-Z),at least one numeric (0-9) and at least one special character among (@,#,$,%,^,&amp;,+,=)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I cannot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration failure! Invalid email address.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I enter invalid email address
+1. Does not contain exactly one '@' character.
+2. Does not contain one or more '.' characters after the '@' character.
+3. Does not contain any alphabet (a-z, A-Z) before '@'.
+4. Does not contain any alphabet (a-z, A-Z) in between '@' and '.'.
+5. Does not contain any alphabet (a-z, A-Z) after the last '.' character
+in the registration section of the Student Registration Page and click on the </t>
     </r>
     <r>
       <rPr>
@@ -4249,7 +4814,73 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>button.</t>
+      <t xml:space="preserve">button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive respective error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration failure! Invalid email address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I cannot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>register myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as a student with anodiam.com. I must receive following error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration failure! An user with the same email address is already registered.</t>
     </r>
   </si>
   <si>
@@ -4290,7 +4921,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I fill up all the fields: (username, password, confirm password, email) (all mandatory) in the registration section of the Student Registration Page and click on the </t>
+      <t xml:space="preserve"> I enter an already existing username in the Student Registration Page and click on the </t>
     </r>
     <r>
       <rPr>
@@ -4329,8 +4960,31 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to register myself as a student with anodiam.com. Upon successful registration, I get a  message on top of the registration page saying "Registration Succesful".</t>
-    </r>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive respective error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration failure! An user with the same email address is already registered.</t>
+    </r>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>3.3.2</t>
+  </si>
+  <si>
+    <t>3.3.3</t>
+  </si>
+  <si>
+    <t>3.3.4</t>
   </si>
 </sst>
 </file>
@@ -4417,7 +5071,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4439,12 +5093,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4567,6 +5215,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4578,9 +5227,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4815,31 +5461,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -4910,11 +5556,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4954,7 +5600,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>22</v>
@@ -4986,16 +5632,16 @@
         <v>16</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>25</v>
@@ -5007,11 +5653,11 @@
         <v>5</v>
       </c>
       <c r="K2" s="24">
-        <f t="shared" ref="K2:K23" si="0">IF(I2=0,0,J2/I2)</f>
+        <f t="shared" ref="K2:K27" si="0">IF(I2=0,0,J2/I2)</f>
         <v>2.5</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M2" s="21">
         <v>1</v>
@@ -5028,16 +5674,16 @@
         <v>16</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>25</v>
@@ -5053,13 +5699,13 @@
         <v>5</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M3" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -5070,16 +5716,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>161</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>26</v>
@@ -5095,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M4" s="21">
         <v>1</v>
@@ -5106,7 +5752,7 @@
         <v>3.1</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>16</v>
@@ -5114,10 +5760,10 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22">
@@ -5131,15 +5777,15 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M5" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
-        <v>3.2</v>
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>15</v>
@@ -5148,40 +5794,40 @@
         <v>16</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>143</v>
+        <v>166</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I6" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="23">
         <v>5</v>
       </c>
       <c r="K6" s="24">
         <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M6" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
-        <v>3.3</v>
+    <row r="7" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>15</v>
@@ -5190,40 +5836,40 @@
         <v>16</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>148</v>
+        <v>162</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>163</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="23">
         <v>5</v>
       </c>
       <c r="K7" s="24">
         <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M7" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
-        <v>3.4</v>
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>164</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>15</v>
@@ -5232,40 +5878,40 @@
         <v>16</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>160</v>
+        <v>168</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="23">
         <v>5</v>
       </c>
       <c r="K8" s="24">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <f t="shared" ref="K8" si="1">IF(I8=0,0,J8/I8)</f>
+        <v>2.5</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M8" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
-        <v>3.5</v>
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>15</v>
@@ -5274,40 +5920,40 @@
         <v>16</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>138</v>
+        <v>152</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I9" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="23">
         <v>5</v>
       </c>
       <c r="K9" s="24">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <f t="shared" ref="K9" si="2">IF(I9=0,0,J9/I9)</f>
+        <v>2.5</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M9" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="19" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
-        <v>3.6</v>
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>15</v>
@@ -5316,40 +5962,40 @@
         <v>16</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>139</v>
+        <v>152</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="23">
         <v>5</v>
       </c>
       <c r="K10" s="24">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <f t="shared" ref="K10" si="3">IF(I10=0,0,J10/I10)</f>
+        <v>2.5</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M10" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
-        <v>3.7</v>
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>15</v>
@@ -5358,16 +6004,16 @@
         <v>16</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>151</v>
+        <v>170</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>26</v>
@@ -5376,22 +6022,22 @@
         <v>2</v>
       </c>
       <c r="J11" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11" s="24">
-        <f>IF(I11=0,0,J11/I11)</f>
-        <v>1.5</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>129</v>
+        <f t="shared" ref="K11" si="4">IF(I11=0,0,J11/I11)</f>
+        <v>2.5</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="M11" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
-        <v>3.8</v>
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>15</v>
@@ -5400,16 +6046,16 @@
         <v>16</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>155</v>
+        <v>173</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>26</v>
@@ -5418,22 +6064,22 @@
         <v>2</v>
       </c>
       <c r="J12" s="23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K12" s="24">
-        <f>IF(I12=0,0,J12/I12)</f>
-        <v>0.5</v>
+        <f t="shared" ref="K12" si="5">IF(I12=0,0,J12/I12)</f>
+        <v>2.5</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M12" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
-        <v>3.8</v>
+    <row r="13" spans="1:13" s="19" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>15</v>
@@ -5442,58 +6088,58 @@
         <v>16</v>
       </c>
       <c r="D13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>152</v>
-      </c>
       <c r="F13" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>157</v>
+        <v>175</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I13" s="22">
         <v>2</v>
       </c>
       <c r="J13" s="23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K13" s="24">
-        <f>IF(I13=0,0,J13/I13)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M13" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
-        <v>4</v>
-      </c>
-      <c r="B14" s="22" t="s">
+    <row r="14" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>26</v>
@@ -5509,301 +6155,333 @@
         <v>2.5</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M14" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="20" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="22">
+        <v>2</v>
+      </c>
+      <c r="J15" s="23">
+        <v>3</v>
+      </c>
+      <c r="K15" s="24">
+        <f>IF(I15=0,0,J15/I15)</f>
+        <v>1.5</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="21">
+        <v>3.6</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="22">
+        <v>2</v>
+      </c>
+      <c r="J16" s="23">
+        <v>1</v>
+      </c>
+      <c r="K16" s="24">
+        <f>IF(I16=0,0,J16/I16)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
+        <v>3.7</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="22">
+        <v>2</v>
+      </c>
+      <c r="J17" s="23">
+        <v>1</v>
+      </c>
+      <c r="K17" s="24">
+        <f>IF(I17=0,0,J17/I17)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="21">
+        <v>4</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="22">
+        <v>2</v>
+      </c>
+      <c r="J18" s="23">
         <v>5</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="K18" s="24">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M18" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <v>5</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="22" t="s">
+      <c r="D19" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I19" s="22">
         <v>5</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J19" s="23">
         <v>5</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K19" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L19" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="22">
+        <v>5</v>
+      </c>
+      <c r="J20" s="23">
+        <v>5</v>
+      </c>
+      <c r="K20" s="24">
+        <f t="shared" ref="K20" si="6">IF(I20=0,0,J20/I20)</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="M15" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="22" t="s">
+      <c r="D21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="22">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7">
+        <v>13</v>
+      </c>
+      <c r="J21" s="10">
         <v>5</v>
       </c>
-      <c r="J16" s="23">
-        <v>5</v>
-      </c>
-      <c r="K16" s="24">
-        <f t="shared" ref="K16" si="1">IF(I16=0,0,J16/I16)</f>
-        <v>1</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7">
-        <v>13</v>
-      </c>
-      <c r="J17" s="10">
-        <v>5</v>
-      </c>
-      <c r="K17" s="11">
-        <f>IF(I17=0,0,J17/I17)</f>
+      <c r="K21" s="11">
+        <f>IF(I21=0,0,J21/I21)</f>
         <v>0.38461538461538464</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>6.2</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7">
-        <v>5</v>
-      </c>
-      <c r="J18" s="10">
-        <v>1</v>
-      </c>
-      <c r="K18" s="11">
-        <f>IF(I18=0,0,J18/I18)</f>
-        <v>0.2</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>7</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>8</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>9</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>10</v>
-      </c>
-      <c r="B22" s="7" t="s">
+        <v>6.2</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="10"/>
+        <v>133</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7">
+        <v>5</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1</v>
+      </c>
       <c r="K22" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(I22=0,0,J22/I22)</f>
+        <v>0.2</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>15</v>
@@ -5812,19 +6490,19 @@
         <v>16</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="10"/>
@@ -5835,9 +6513,9 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>15</v>
@@ -5846,29 +6524,32 @@
         <v>16</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="10"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>15</v>
@@ -5877,29 +6558,32 @@
         <v>16</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>15</v>
@@ -5908,29 +6592,32 @@
         <v>16</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="11"/>
+      <c r="K26" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>15</v>
@@ -5939,29 +6626,32 @@
         <v>16</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="11"/>
+      <c r="K27" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>15</v>
@@ -5970,19 +6660,19 @@
         <v>16</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="10"/>
@@ -5990,9 +6680,9 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>15</v>
@@ -6001,19 +6691,19 @@
         <v>16</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="10"/>
@@ -6021,9 +6711,9 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>15</v>
@@ -6032,19 +6722,19 @@
         <v>16</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="10"/>
@@ -6052,9 +6742,9 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>15</v>
@@ -6063,19 +6753,19 @@
         <v>16</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="10"/>
@@ -6083,9 +6773,9 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="18" customFormat="1" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>15</v>
@@ -6094,19 +6784,19 @@
         <v>16</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="10"/>
@@ -6114,9 +6804,9 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>15</v>
@@ -6125,19 +6815,19 @@
         <v>16</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="10"/>
@@ -6147,7 +6837,7 @@
     </row>
     <row r="34" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>15</v>
@@ -6156,19 +6846,19 @@
         <v>16</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="10"/>
@@ -6176,9 +6866,9 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>15</v>
@@ -6187,19 +6877,19 @@
         <v>16</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="10"/>
@@ -6207,9 +6897,9 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="18" customFormat="1" ht="318.75" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>15</v>
@@ -6218,19 +6908,19 @@
         <v>16</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="10"/>
@@ -6240,7 +6930,7 @@
     </row>
     <row r="37" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>15</v>
@@ -6249,19 +6939,19 @@
         <v>16</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="10"/>
@@ -6269,9 +6959,9 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>15</v>
@@ -6280,19 +6970,19 @@
         <v>16</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="10"/>
@@ -6300,9 +6990,9 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>15</v>
@@ -6311,19 +7001,19 @@
         <v>16</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="10"/>
@@ -6331,9 +7021,9 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>15</v>
@@ -6342,19 +7032,19 @@
         <v>16</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="10"/>
@@ -6362,9 +7052,9 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>15</v>
@@ -6373,19 +7063,19 @@
         <v>16</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="10"/>
@@ -6393,9 +7083,9 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>15</v>
@@ -6404,19 +7094,19 @@
         <v>16</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="10"/>
@@ -6424,9 +7114,9 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>15</v>
@@ -6435,19 +7125,19 @@
         <v>16</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="10"/>
@@ -6455,56 +7145,180 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+    <row r="44" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>28</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="I44" s="7"/>
       <c r="J44" s="10"/>
       <c r="K44" s="11"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+    <row r="45" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>29</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="I45" s="7"/>
       <c r="J45" s="10"/>
       <c r="K45" s="11"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
+    <row r="46" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>30</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>31</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M43">
+  <autoFilter ref="A1:M47">
     <sortState ref="A2:O24">
       <sortCondition ref="K1"/>
     </sortState>
   </autoFilter>
   <dataValidations xWindow="1023" yWindow="304" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J49">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L49">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I49">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B49">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C49">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -3018,110 +3018,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned but registered user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I fill up the username and password fields in the login page and click on the Login button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be not able to view the Anodiam Student Home Page. Upon eneteing wrong userid or password I must be sent back to the login page with a login validation message (wrong user id or password) displayed on top in red</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can not log in to anodiam.com and view the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Student Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Upon eneteing wrong userid or password I must be sent back to the login page with a login validation message (wrong user id or password) displayed on top in red.</t>
-    </r>
-  </si>
-  <si>
     <t>Scheduled</t>
   </si>
   <si>
@@ -4985,6 +4881,148 @@
   </si>
   <si>
     <t>3.3.4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can not log in to anodiam.com and view the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Upon eneteing wrong userid or password I must be sent back to the login page with a login validation message (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Login failure. Incorrect username or password.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) displayed on top in red.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned but registered user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I fill up the username and password fields in the login page and click on the Login button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be not able to view the Anodiam Student Home Page. Upon eneteing wrong userid or password I must be sent back to the login page with a login validation message (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Login failure. Incorrect username or password.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) displayed on top in red</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5559,8 +5597,8 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5641,7 +5679,7 @@
         <v>29</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>25</v>
@@ -5657,7 +5695,7 @@
         <v>2.5</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M2" s="21">
         <v>1</v>
@@ -5677,7 +5715,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>28</v>
@@ -5699,7 +5737,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M3" s="21">
         <v>1</v>
@@ -5719,13 +5757,13 @@
         <v>30</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>26</v>
@@ -5741,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M4" s="21">
         <v>1</v>
@@ -5752,7 +5790,7 @@
         <v>3.1</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>16</v>
@@ -5760,10 +5798,10 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22">
@@ -5777,7 +5815,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M5" s="21">
         <v>1</v>
@@ -5785,7 +5823,7 @@
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>15</v>
@@ -5797,13 +5835,13 @@
         <v>30</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>26</v>
@@ -5819,7 +5857,7 @@
         <v>2.5</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M6" s="21">
         <v>1</v>
@@ -5827,7 +5865,7 @@
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>15</v>
@@ -5839,13 +5877,13 @@
         <v>30</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>26</v>
@@ -5861,7 +5899,7 @@
         <v>2.5</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M7" s="21">
         <v>1</v>
@@ -5869,7 +5907,7 @@
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>15</v>
@@ -5881,13 +5919,13 @@
         <v>30</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>26</v>
@@ -5903,7 +5941,7 @@
         <v>2.5</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M8" s="21">
         <v>1</v>
@@ -5911,7 +5949,7 @@
     </row>
     <row r="9" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>15</v>
@@ -5923,13 +5961,13 @@
         <v>30</v>
       </c>
       <c r="E9" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>151</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>153</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>26</v>
@@ -5945,7 +5983,7 @@
         <v>2.5</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M9" s="21">
         <v>1</v>
@@ -5953,7 +5991,7 @@
     </row>
     <row r="10" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>15</v>
@@ -5965,13 +6003,13 @@
         <v>30</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>26</v>
@@ -5987,7 +6025,7 @@
         <v>2.5</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M10" s="21">
         <v>1</v>
@@ -5995,7 +6033,7 @@
     </row>
     <row r="11" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>15</v>
@@ -6007,13 +6045,13 @@
         <v>30</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>26</v>
@@ -6029,7 +6067,7 @@
         <v>2.5</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M11" s="21">
         <v>1</v>
@@ -6037,7 +6075,7 @@
     </row>
     <row r="12" spans="1:13" s="26" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>15</v>
@@ -6049,13 +6087,13 @@
         <v>30</v>
       </c>
       <c r="E12" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>26</v>
@@ -6071,7 +6109,7 @@
         <v>2.5</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M12" s="21">
         <v>1</v>
@@ -6079,7 +6117,7 @@
     </row>
     <row r="13" spans="1:13" s="19" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>15</v>
@@ -6091,13 +6129,13 @@
         <v>30</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>26</v>
@@ -6113,7 +6151,7 @@
         <v>2.5</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M13" s="21">
         <v>1</v>
@@ -6121,7 +6159,7 @@
     </row>
     <row r="14" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>15</v>
@@ -6133,13 +6171,13 @@
         <v>30</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>26</v>
@@ -6155,7 +6193,7 @@
         <v>2.5</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M14" s="21">
         <v>1</v>
@@ -6172,16 +6210,16 @@
         <v>16</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F15" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>140</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>142</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>26</v>
@@ -6197,7 +6235,7 @@
         <v>1.5</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M15" s="21">
         <v>1</v>
@@ -6214,16 +6252,16 @@
         <v>16</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>146</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>26</v>
@@ -6239,7 +6277,7 @@
         <v>0.5</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M16" s="21">
         <v>1</v>
@@ -6256,16 +6294,16 @@
         <v>16</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>145</v>
-      </c>
       <c r="G17" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>25</v>
@@ -6281,7 +6319,7 @@
         <v>0.5</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M17" s="21">
         <v>1</v>
@@ -6323,7 +6361,7 @@
         <v>2.5</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M18" s="21">
         <v>1</v>
@@ -6365,13 +6403,13 @@
         <v>1</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M19" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>5.0999999999999996</v>
       </c>
@@ -6388,10 +6426,10 @@
         <v>122</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>25</v>
@@ -6407,7 +6445,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M20" s="21">
         <v>1</v>
@@ -6421,13 +6459,13 @@
         <v>15</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -6458,10 +6496,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -16,7 +16,7 @@
     <sheet name="MVPProductBacklog" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MVPProductBacklog!$A$1:$M$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MVPProductBacklog!$A$1:$M$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="186">
   <si>
     <t>Anodiam</t>
   </si>
@@ -2934,30 +2934,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Fill up the username and password fields with invalid username or password in the login page and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Login </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>button.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="10"/>
@@ -4884,6 +4860,30 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Fill up the username and password fields with invalid username in the login page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Login </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">I can not log in to anodiam.com and view the </t>
     </r>
     <r>
@@ -4922,17 +4922,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>. Upon eneteing wrong userid or password I must be sent back to the login page with a login validation message (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Login failure. Incorrect username or password.</t>
+      <t>. I must be sent back to the login page with a login validation message (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Login failure. Not a valid Anodiam username.</t>
     </r>
     <r>
       <rPr>
@@ -4982,7 +4982,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I fill up the username and password fields in the login page and click on the Login button
+      <t xml:space="preserve"> I fill up the username and password fields invalid username in the login page and click on the Login button
 </t>
     </r>
     <r>
@@ -5002,26 +5002,192 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be not able to view the Anodiam Student Home Page. Upon eneteing wrong userid or password I must be sent back to the login page with a login validation message (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Login failure. Incorrect username or password.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) displayed on top in red</t>
+      <t xml:space="preserve"> I should be not able to view the Anodiam Student Home Page.  I must be sent back to the login page with a login validation message (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Login failure. Not a valid Anodiam username.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) displayed on top in red.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fill up the username and password fields with balid username but invalid password in the login page and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Login </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can not log in to anodiam.com and view the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. I must be sent back to the login page with a login validation message (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Login failure! Incorrect password.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) displayed on top in red.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned but registered user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I fill up the username and password fields invalid username in the login page and click on the Login button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be not able to view the Anodiam Student Home Page.  I must be sent back to the login page with a login validation message (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Login failure! Incorrect password.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) displayed on top in red.</t>
     </r>
   </si>
 </sst>
@@ -5190,7 +5356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5252,6 +5418,7 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5499,31 +5666,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -5594,11 +5761,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5679,7 +5846,7 @@
         <v>29</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>25</v>
@@ -5691,11 +5858,11 @@
         <v>5</v>
       </c>
       <c r="K2" s="24">
-        <f t="shared" ref="K2:K27" si="0">IF(I2=0,0,J2/I2)</f>
+        <f t="shared" ref="K2:K28" si="0">IF(I2=0,0,J2/I2)</f>
         <v>2.5</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M2" s="21">
         <v>1</v>
@@ -5715,7 +5882,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>28</v>
@@ -5737,7 +5904,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M3" s="21">
         <v>1</v>
@@ -5757,13 +5924,13 @@
         <v>30</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>159</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>26</v>
@@ -5779,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M4" s="21">
         <v>1</v>
@@ -5790,7 +5957,7 @@
         <v>3.1</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>16</v>
@@ -5798,10 +5965,10 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22">
@@ -5815,7 +5982,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M5" s="21">
         <v>1</v>
@@ -5823,7 +5990,7 @@
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>15</v>
@@ -5835,13 +6002,13 @@
         <v>30</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>26</v>
@@ -5857,7 +6024,7 @@
         <v>2.5</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M6" s="21">
         <v>1</v>
@@ -5865,7 +6032,7 @@
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>15</v>
@@ -5877,13 +6044,13 @@
         <v>30</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>26</v>
@@ -5899,7 +6066,7 @@
         <v>2.5</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M7" s="21">
         <v>1</v>
@@ -5907,7 +6074,7 @@
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>15</v>
@@ -5919,13 +6086,13 @@
         <v>30</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F8" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>166</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>167</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>26</v>
@@ -5941,7 +6108,7 @@
         <v>2.5</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M8" s="21">
         <v>1</v>
@@ -5949,7 +6116,7 @@
     </row>
     <row r="9" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>15</v>
@@ -5961,13 +6128,13 @@
         <v>30</v>
       </c>
       <c r="E9" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>151</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>26</v>
@@ -5983,7 +6150,7 @@
         <v>2.5</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M9" s="21">
         <v>1</v>
@@ -5991,7 +6158,7 @@
     </row>
     <row r="10" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>15</v>
@@ -6003,13 +6170,13 @@
         <v>30</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>26</v>
@@ -6025,7 +6192,7 @@
         <v>2.5</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M10" s="21">
         <v>1</v>
@@ -6033,7 +6200,7 @@
     </row>
     <row r="11" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>15</v>
@@ -6045,13 +6212,13 @@
         <v>30</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F11" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>168</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>169</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>26</v>
@@ -6067,7 +6234,7 @@
         <v>2.5</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M11" s="21">
         <v>1</v>
@@ -6075,7 +6242,7 @@
     </row>
     <row r="12" spans="1:13" s="26" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>15</v>
@@ -6087,13 +6254,13 @@
         <v>30</v>
       </c>
       <c r="E12" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="G12" s="22" t="s">
         <v>171</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>172</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>26</v>
@@ -6109,7 +6276,7 @@
         <v>2.5</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M12" s="21">
         <v>1</v>
@@ -6117,7 +6284,7 @@
     </row>
     <row r="13" spans="1:13" s="19" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>15</v>
@@ -6129,13 +6296,13 @@
         <v>30</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>26</v>
@@ -6151,7 +6318,7 @@
         <v>2.5</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M13" s="21">
         <v>1</v>
@@ -6159,7 +6326,7 @@
     </row>
     <row r="14" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>15</v>
@@ -6171,13 +6338,13 @@
         <v>30</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>175</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>176</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>26</v>
@@ -6193,7 +6360,7 @@
         <v>2.5</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M14" s="21">
         <v>1</v>
@@ -6210,16 +6377,16 @@
         <v>16</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>139</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>140</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>26</v>
@@ -6235,7 +6402,7 @@
         <v>1.5</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M15" s="21">
         <v>1</v>
@@ -6252,16 +6419,16 @@
         <v>16</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>26</v>
@@ -6277,7 +6444,7 @@
         <v>0.5</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M16" s="21">
         <v>1</v>
@@ -6294,16 +6461,16 @@
         <v>16</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>25</v>
@@ -6319,7 +6486,7 @@
         <v>0.5</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M17" s="21">
         <v>1</v>
@@ -6361,7 +6528,7 @@
         <v>2.5</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M18" s="21">
         <v>1</v>
@@ -6387,7 +6554,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>25</v>
@@ -6403,13 +6570,13 @@
         <v>1</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M19" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>5.0999999999999996</v>
       </c>
@@ -6423,7 +6590,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>181</v>
@@ -6445,115 +6612,123 @@
         <v>1</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M20" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+    <row r="21" spans="1:13" s="27" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>5.2</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="22">
+        <v>5</v>
+      </c>
+      <c r="J21" s="23">
+        <v>5</v>
+      </c>
+      <c r="K21" s="24">
+        <f t="shared" ref="K21" si="7">IF(I21=0,0,J21/I21)</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="M21" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>6</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7">
-        <v>13</v>
-      </c>
-      <c r="J21" s="10">
-        <v>5</v>
-      </c>
-      <c r="K21" s="11">
-        <f>IF(I21=0,0,J21/I21)</f>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>6.2</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
+        <v>13</v>
+      </c>
+      <c r="J22" s="10">
         <v>5</v>
-      </c>
-      <c r="J22" s="10">
-        <v>1</v>
       </c>
       <c r="K22" s="11">
         <f>IF(I22=0,0,J22/I22)</f>
-        <v>0.2</v>
-      </c>
-      <c r="L22" s="6"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>7</v>
-      </c>
-      <c r="B23" s="7" t="s">
+        <v>6.2</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="10"/>
+        <v>130</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7">
+        <v>5</v>
+      </c>
+      <c r="J23" s="10">
+        <v>1</v>
+      </c>
       <c r="K23" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(I23=0,0,J23/I23)</f>
+        <v>0.2</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>15</v>
@@ -6565,16 +6740,16 @@
         <v>35</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="10"/>
@@ -6585,9 +6760,9 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>15</v>
@@ -6599,13 +6774,13 @@
         <v>35</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>42</v>
@@ -6619,9 +6794,9 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>15</v>
@@ -6633,16 +6808,16 @@
         <v>35</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="10"/>
@@ -6653,9 +6828,9 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>15</v>
@@ -6667,16 +6842,16 @@
         <v>35</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="10"/>
@@ -6689,7 +6864,7 @@
     </row>
     <row r="28" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>15</v>
@@ -6701,26 +6876,29 @@
         <v>35</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
+      <c r="K28" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>15</v>
@@ -6732,13 +6910,13 @@
         <v>35</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>50</v>
@@ -6749,9 +6927,9 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>15</v>
@@ -6763,13 +6941,13 @@
         <v>35</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>50</v>
@@ -6780,9 +6958,9 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>15</v>
@@ -6794,16 +6972,16 @@
         <v>35</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="10"/>
@@ -6813,7 +6991,7 @@
     </row>
     <row r="32" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>15</v>
@@ -6825,16 +7003,16 @@
         <v>35</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="10"/>
@@ -6842,9 +7020,9 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>15</v>
@@ -6856,16 +7034,16 @@
         <v>35</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="10"/>
@@ -6875,7 +7053,7 @@
     </row>
     <row r="34" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>15</v>
@@ -6887,16 +7065,16 @@
         <v>35</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="10"/>
@@ -6904,9 +7082,9 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>15</v>
@@ -6918,16 +7096,16 @@
         <v>35</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="10"/>
@@ -6935,9 +7113,9 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="18" customFormat="1" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>15</v>
@@ -6949,16 +7127,16 @@
         <v>35</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="10"/>
@@ -6966,9 +7144,9 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="18" customFormat="1" ht="318.75" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>15</v>
@@ -6980,13 +7158,13 @@
         <v>35</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>84</v>
@@ -6997,9 +7175,9 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>15</v>
@@ -7011,13 +7189,13 @@
         <v>35</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>84</v>
@@ -7028,9 +7206,9 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>15</v>
@@ -7042,13 +7220,13 @@
         <v>35</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>84</v>
@@ -7059,9 +7237,9 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>15</v>
@@ -7073,13 +7251,13 @@
         <v>35</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>84</v>
@@ -7090,9 +7268,9 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>15</v>
@@ -7104,13 +7282,13 @@
         <v>35</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>84</v>
@@ -7121,9 +7299,9 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>15</v>
@@ -7135,13 +7313,13 @@
         <v>35</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>84</v>
@@ -7152,9 +7330,9 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>15</v>
@@ -7166,13 +7344,13 @@
         <v>35</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>84</v>
@@ -7185,7 +7363,7 @@
     </row>
     <row r="44" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>15</v>
@@ -7197,13 +7375,13 @@
         <v>35</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>84</v>
@@ -7216,7 +7394,7 @@
     </row>
     <row r="45" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>15</v>
@@ -7228,13 +7406,13 @@
         <v>35</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>84</v>
@@ -7247,7 +7425,7 @@
     </row>
     <row r="46" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>15</v>
@@ -7259,13 +7437,13 @@
         <v>35</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>84</v>
@@ -7276,9 +7454,9 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>15</v>
@@ -7290,13 +7468,13 @@
         <v>35</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>84</v>
@@ -7307,15 +7485,31 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+    <row r="48" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>31</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="I48" s="7"/>
       <c r="J48" s="10"/>
       <c r="K48" s="11"/>
@@ -7337,26 +7531,41 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
+    <row r="50" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M47">
+  <autoFilter ref="A1:M48">
     <sortState ref="A2:O24">
       <sortCondition ref="K1"/>
     </sortState>
   </autoFilter>
   <dataValidations xWindow="1023" yWindow="304" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J50">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L50">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I50">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B50">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C50">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -16,7 +16,7 @@
     <sheet name="MVPProductBacklog" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MVPProductBacklog!$A$1:$M$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MVPProductBacklog!$A$1:$M$59</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="218">
   <si>
     <t>Anodiam</t>
   </si>
@@ -331,73 +331,6 @@
   </si>
   <si>
     <t>004MVPStudentAppWireframes.pptx &gt;&gt; Student Registration Page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Visit the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>home page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of anodiam.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can view the Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>registration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> containing a link to login page and a registration section.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2870,7 +2803,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I am an unsigned user
+      <t xml:space="preserve"> I am an unsigned but registered user
 </t>
     </r>
     <r>
@@ -2890,26 +2823,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Register for free</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link on the home page of anodiam.com
+      <t xml:space="preserve"> I fill up the username and password fields in the login page and click on the Login button
 </t>
     </r>
     <r>
@@ -2929,67 +2843,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be able to view the Anodiam registration page: containing a link to login page and a registration section. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned but registered user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I fill up the username and password fields in the login page and click on the Login button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> I should be able to view the Anodiam Student Home Page: containing a welcome message with my (first and last) name at the top.</t>
     </r>
   </si>
@@ -3013,9 +2866,6 @@
   </si>
   <si>
     <t>Unsigned User</t>
-  </si>
-  <si>
-    <t>Password Strength Meter</t>
   </si>
   <si>
     <t>Enter already existing Anodiam user email address in the registration section of the Student Registration Page and click on the Register button.</t>
@@ -3051,134 +2901,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Register</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link on the home page of anodiam.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I type anodiam.com on a web browser
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to view the Anodiam home page: containing </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>link to register</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>login section</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Enter invalid username
-(Less than 8 characters long)
-in the registration section of the Student Registration Page and click on the Register button.</t>
-  </si>
-  <si>
     <t>Enter an already existing Anodiam username in the registration section of the Student Registration Page and click on the Register button.</t>
   </si>
   <si>
@@ -4059,97 +3781,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> as a student with anodiam.com. I must receive error message:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Student registration failure! Username should be 8 or more characters long.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I enter  invalid username (Less than 8 characters long) in the registration section of the Student Registration Page and click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Register </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
 </t>
     </r>
     <r>
@@ -5190,12 +4821,1361 @@
       <t>) displayed on top in red.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Visit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> anodiam.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can view the Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> containing link to register and a login section.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Register here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link on the index page of anodiam.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can view the Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>registration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> containing a link to login page (Already registered? </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Login here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) and a registration section.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I type anodiam.com on a web browser
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the Anodiam index page: containing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>link to register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Not yet registered? </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Register here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) and a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>login section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Register here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link on the home page of anodiam.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the Anodiam registration page: containing a link to login page (Already registered? </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Login here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) and a registration section. </t>
+    </r>
+  </si>
+  <si>
+    <t>Enter invalid username
+(Less than 8 characters long)
+in the registration section of the Student Registration Page and (fill up legitimate values for email, password and confirm password) and click on the Register button.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I enter  invalid username (Less than 8 characters long) in the registration section of the Student Registration Page and (fill up legitimate values for email, password and confirm password) and click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Register </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should not be able to register myself as a student with anodiam.com. I should receive error message:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student registration failure! Username should be 8 or more characters long.</t>
+    </r>
+  </si>
+  <si>
+    <t>I cannot register myself as a student with anodiam.com. I must receive following validation error message:
+Confirm Password:  Does not match with password.</t>
+  </si>
+  <si>
+    <t>Enter Confirm password not equal to password in the registration page.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Enter Confirm password not equal to password in the registration page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am not allowed register myself as a student with anodiam.com. I must receive following validation error message:
+Confirm Password:  Does not match with password.</t>
+    </r>
+  </si>
+  <si>
+    <t>3.3.5</t>
+  </si>
+  <si>
+    <t>Starting to type my password in the registration page</t>
+  </si>
+  <si>
+    <t>I can see a password strength meter line depicting the strength of my password. The line will change color from red to amber to green and grow in length from 0-100% as my password strength gets stronger (according to the above conditions form the above use cases)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Starting to type my password in the registration page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see a password strength meter line depicting the strength of my password. The line will change color from red to amber to green and grow in length from 0-100% as my password strength gets stronger (according to the above conditions form the above use cases)</t>
+    </r>
+  </si>
+  <si>
+    <t>I can toggle the password field as unmasked (checked) or masked (unchecked)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Check or uncheck the Show password checkbox in the registration page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I can toggle the password field as unmasked (checked) or masked (unchecked)</t>
+    </r>
+  </si>
+  <si>
+    <t>Check or uncheck the Show password checkbox in the registration page.</t>
+  </si>
+  <si>
+    <t>Check or uncheck the Show password checkbox in the login page.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Check or uncheck the Show password checkbox in the login page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I can toggle the password field as unmasked (checked) or masked (unchecked)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sign into anodiam and land up to view my Home page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a signed in user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sign into anodiam and land up to view my Home page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I should be able to see a welcome messaage on top, saying "Welcome {username)" in case my firstname does not exist in my profile. Otherwise the message should display "Welcome {firstname}"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I can see a welcome messaage on top, saying "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Welcome {username)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" in case my firstname does not exist in my profile. Otherwise the message should display</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Welcome {firstname}"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a signed in user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sign into anodiam and land up to view my Home page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">I should be able to see the following links in the responsive </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Navbar:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Home (on left side), search a course (text input area with a search button in the middle) and Profile &amp; Logout links at the right.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can see the following links in the responsive </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Navbar:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Home (on left side), search a course (text input area with a search button in the middle) and Profile &amp; Logout links at the right.</t>
+    </r>
+  </si>
+  <si>
+    <t>Click on the Logout link of the navbar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I should be signed out of anodiam. I should be sent to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page. The navbar links will show only Login and Register links. The welcome message will also not be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a signed in user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Click on the Logout link of the navbar
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I should be signed out of anodiam. I should be sent to the Login page. The navbar links will show only Login and Register links. The welcome message will also not be displayed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Click on the Home link of the navbar</t>
+  </si>
+  <si>
+    <t>I can visit my home page. I can see the following links in the responsive Navbar: Home (on left side), search a course (text input area with a search button in the middle) and Profile &amp; Logout links at the right. Also I can see a welcome messaage on top, saying "Welcome {username)" in case my firstname does not exist in my profile. Otherwise the message should display "Welcome {firstname}"</t>
+  </si>
+  <si>
+    <t>Click on the Profile link of the navbar</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a signed in user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Click on the Home link of the navbar
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I should be able to visit my home page. I can see the following links in the responsive Navbar: Home (on left side), search a course (text input area with a search button in the middle) and Profile &amp; Logout links at the right. Also I can see a welcome messaage on top, saying "Welcome {username)" in case my firstname does not exist in my profile. Otherwise the message should display "Welcome {firstname}"</t>
+    </r>
+  </si>
+  <si>
+    <t>I can visit my profile page. The logged in Navbar and welcome message will continue to display. In the body of the profile page I can see a form displaying following Text fields with any existing data pre-populated in those fields:
+First name.
+Middle name:
+Last name:
+Phone number: ISD code:
+Guardien's First name.
+Guardien's Middle name:
+Guardien's Last name:
+Guardien's Phone number: ISD code:
+Guardien's email:
+Following dropdown fields with any existing data pre-selected in those fields:
+Langiage:
+Board:
+Level:
+Country:(ISD will be as per Country)
+State:
+Text fields for City and ZIP code
+And a Save button at the end.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a signed in user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the Profile link of the navbar
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I should be able to visit my profile page. The logged in Navbar and welcome message will continue to display. In the body of the profile page I can see a form displaying following Text fields with any existing data pre-populated in those fields:
+First name.
+Middle name:
+Last name:
+Phone number: ISD code:
+Guardien's First name.
+Guardien's Middle name:
+Guardien's Last name:
+Guardien's Phone number: ISD code:
+Guardien's email:
+Following dropdown fields with any existing data pre-selected in those fields:
+Langiage:
+Board:
+Level:
+Country:(ISD will be as per Country)
+State:
+Text fields for City and ZIP code
+And a Save button at the end.</t>
+    </r>
+  </si>
+  <si>
+    <t>Edit the prepopulated profile values (or empty fielsds for first time edit) on my profile page with all legitimate values and Click on the Save button</t>
+  </si>
+  <si>
+    <t>I can save my updated values on my profile page and I get a message displayed on top of my profile page: Student profile saved syccessfully!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a signed in user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Edit the prepopulated profile values (or empty fielsds for first time edit) on my profile page with all legitimate values and Click on the Save button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I should be able to save my updated values on my profile page and I get a message displayed on top of my profile page: Student profile saved syccessfully!</t>
+    </r>
+  </si>
+  <si>
+    <t>Edit the prepopulated profile values (or empty fielsds for first time edit) on my profile page with wrong format values for email or phone numbers and Click on the Save button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I cannot save my updated values on my profile page and I get a proper validation message displayed on top of my profile page: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Invalid email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Invalid phone number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a signed in user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Edit the prepopulated profile values (or empty fielsds for first time edit) on my profile page with wrong format values for email or phone numbers and Click on the Save button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I should be able to save my updated values on my profile page and I get a proper validation message displayed on top of my profile page: Invalid email OR Invalid phone number</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5274,8 +6254,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5297,6 +6284,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5356,7 +6349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5421,6 +6414,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5432,6 +6427,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5666,31 +6676,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="A2" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -5761,11 +6771,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5805,7 +6815,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>22</v>
@@ -5837,16 +6847,16 @@
         <v>16</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>25</v>
@@ -5858,17 +6868,17 @@
         <v>5</v>
       </c>
       <c r="K2" s="24">
-        <f t="shared" ref="K2:K28" si="0">IF(I2=0,0,J2/I2)</f>
+        <f t="shared" ref="K2:K39" si="0">IF(I2=0,0,J2/I2)</f>
         <v>2.5</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M2" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -5879,16 +6889,16 @@
         <v>16</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>25</v>
@@ -5904,7 +6914,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M3" s="21">
         <v>1</v>
@@ -5921,16 +6931,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>26</v>
@@ -5946,7 +6956,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M4" s="21">
         <v>1</v>
@@ -5957,7 +6967,7 @@
         <v>3.1</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>16</v>
@@ -5965,10 +6975,10 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22">
@@ -5982,7 +6992,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M5" s="21">
         <v>1</v>
@@ -5990,7 +7000,7 @@
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>15</v>
@@ -5999,16 +7009,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>26</v>
@@ -6024,7 +7034,7 @@
         <v>2.5</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M6" s="21">
         <v>1</v>
@@ -6032,7 +7042,7 @@
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>15</v>
@@ -6041,16 +7051,16 @@
         <v>16</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>26</v>
@@ -6066,7 +7076,7 @@
         <v>2.5</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M7" s="21">
         <v>1</v>
@@ -6074,7 +7084,7 @@
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>15</v>
@@ -6083,16 +7093,16 @@
         <v>16</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>26</v>
@@ -6104,11 +7114,11 @@
         <v>5</v>
       </c>
       <c r="K8" s="24">
-        <f t="shared" ref="K8" si="1">IF(I8=0,0,J8/I8)</f>
+        <f>IF(I8=0,0,J8/I8)</f>
         <v>2.5</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M8" s="21">
         <v>1</v>
@@ -6116,7 +7126,7 @@
     </row>
     <row r="9" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>15</v>
@@ -6125,16 +7135,16 @@
         <v>16</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>26</v>
@@ -6146,11 +7156,11 @@
         <v>5</v>
       </c>
       <c r="K9" s="24">
-        <f t="shared" ref="K9" si="2">IF(I9=0,0,J9/I9)</f>
+        <f>IF(I9=0,0,J9/I9)</f>
         <v>2.5</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M9" s="21">
         <v>1</v>
@@ -6158,7 +7168,7 @@
     </row>
     <row r="10" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>15</v>
@@ -6167,16 +7177,16 @@
         <v>16</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>26</v>
@@ -6188,11 +7198,11 @@
         <v>5</v>
       </c>
       <c r="K10" s="24">
-        <f t="shared" ref="K10" si="3">IF(I10=0,0,J10/I10)</f>
+        <f>IF(I10=0,0,J10/I10)</f>
         <v>2.5</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M10" s="21">
         <v>1</v>
@@ -6200,7 +7210,7 @@
     </row>
     <row r="11" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>15</v>
@@ -6209,16 +7219,16 @@
         <v>16</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>26</v>
@@ -6230,11 +7240,11 @@
         <v>5</v>
       </c>
       <c r="K11" s="24">
-        <f t="shared" ref="K11" si="4">IF(I11=0,0,J11/I11)</f>
+        <f>IF(I11=0,0,J11/I11)</f>
         <v>2.5</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M11" s="21">
         <v>1</v>
@@ -6242,7 +7252,7 @@
     </row>
     <row r="12" spans="1:13" s="26" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>15</v>
@@ -6251,16 +7261,16 @@
         <v>16</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>26</v>
@@ -6272,19 +7282,19 @@
         <v>5</v>
       </c>
       <c r="K12" s="24">
-        <f t="shared" ref="K12" si="5">IF(I12=0,0,J12/I12)</f>
+        <f>IF(I12=0,0,J12/I12)</f>
         <v>2.5</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M12" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="19" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="28" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>15</v>
@@ -6293,40 +7303,27 @@
         <v>16</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="22">
-        <v>2</v>
-      </c>
-      <c r="J13" s="23">
-        <v>5</v>
-      </c>
-      <c r="K13" s="24">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="M13" s="21">
-        <v>1</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="19" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>15</v>
@@ -6335,16 +7332,16 @@
         <v>16</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>26</v>
@@ -6360,15 +7357,15 @@
         <v>2.5</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M14" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="20" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
-        <v>3.5</v>
+    <row r="15" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>15</v>
@@ -6377,16 +7374,16 @@
         <v>16</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>26</v>
@@ -6395,22 +7392,22 @@
         <v>2</v>
       </c>
       <c r="J15" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" s="24">
-        <f>IF(I15=0,0,J15/I15)</f>
-        <v>1.5</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>123</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="M15" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="20" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>15</v>
@@ -6419,16 +7416,16 @@
         <v>16</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>26</v>
@@ -6437,22 +7434,22 @@
         <v>2</v>
       </c>
       <c r="J16" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K16" s="24">
         <f>IF(I16=0,0,J16/I16)</f>
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>123</v>
+        <v>1.5</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="M16" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>15</v>
@@ -6461,19 +7458,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I17" s="22">
         <v>2</v>
@@ -6486,605 +7483,678 @@
         <v>0.5</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M17" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="25" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
-        <v>4</v>
-      </c>
-      <c r="B18" s="22" t="s">
+        <v>3.7</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" s="22">
         <v>2</v>
       </c>
       <c r="J18" s="23">
+        <v>1</v>
+      </c>
+      <c r="K18" s="24">
+        <f>IF(I18=0,0,J18/I18)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="28" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <v>3.8</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="22">
+        <v>2</v>
+      </c>
+      <c r="J19" s="23">
+        <v>1</v>
+      </c>
+      <c r="K19" s="24">
+        <f>IF(I19=0,0,J19/I19)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="28" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
+        <v>3.9</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="22">
+        <v>2</v>
+      </c>
+      <c r="J20" s="23">
+        <v>1</v>
+      </c>
+      <c r="K20" s="24">
+        <f>IF(I20=0,0,J20/I20)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>4</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="22">
+        <v>2</v>
+      </c>
+      <c r="J21" s="23">
         <v>5</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K21" s="24">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="L18" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="M18" s="21">
+      <c r="L21" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+    <row r="22" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
         <v>5</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B22" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C22" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="22" t="s">
+      <c r="D22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I22" s="22">
         <v>5</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J22" s="23">
         <v>5</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K22" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L19" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="21">
+      <c r="L22" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="M22" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+    <row r="23" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B23" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C23" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="22">
+        <v>5</v>
+      </c>
+      <c r="J23" s="23">
+        <v>5</v>
+      </c>
+      <c r="K23" s="24">
+        <f>IF(I23=0,0,J23/I23)</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="M23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="27" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
+        <v>5.2</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="22">
+        <v>5</v>
+      </c>
+      <c r="J24" s="23">
+        <v>5</v>
+      </c>
+      <c r="K24" s="24">
+        <f>IF(I24=0,0,J24/I24)</f>
+        <v>1</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="28" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
+        <v>5.3</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="22">
+        <v>2</v>
+      </c>
+      <c r="J25" s="23">
+        <v>1</v>
+      </c>
+      <c r="K25" s="24">
+        <f>IF(I25=0,0,J25/I25)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="36">
+        <v>6</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="22">
-        <v>5</v>
-      </c>
-      <c r="J20" s="23">
-        <v>5</v>
-      </c>
-      <c r="K20" s="24">
-        <f t="shared" ref="K20" si="6">IF(I20=0,0,J20/I20)</f>
+      <c r="E26" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37">
+        <v>2</v>
+      </c>
+      <c r="J26" s="38">
         <v>1</v>
       </c>
-      <c r="L20" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="M20" s="21">
+      <c r="K26" s="39">
+        <f>IF(I26=0,0,J26/I26)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="M26" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="27" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
-        <v>5.2</v>
-      </c>
-      <c r="B21" s="22" t="s">
+    <row r="27" spans="1:13" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="36">
+        <v>7</v>
+      </c>
+      <c r="B27" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C27" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D27" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="22">
-        <v>5</v>
-      </c>
-      <c r="J21" s="23">
-        <v>5</v>
-      </c>
-      <c r="K21" s="24">
-        <f t="shared" ref="K21" si="7">IF(I21=0,0,J21/I21)</f>
+      <c r="E27" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37">
+        <v>2</v>
+      </c>
+      <c r="J27" s="38">
         <v>1</v>
       </c>
-      <c r="L21" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="M21" s="21">
+      <c r="K27" s="39">
+        <f>IF(I27=0,0,J27/I27)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="M27" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>6</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="28" spans="1:13" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="36">
+        <v>8</v>
+      </c>
+      <c r="B28" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7">
-        <v>13</v>
-      </c>
-      <c r="J22" s="10">
-        <v>5</v>
-      </c>
-      <c r="K22" s="11">
-        <f>IF(I22=0,0,J22/I22)</f>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="6"/>
+      <c r="C28" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37">
+        <v>2</v>
+      </c>
+      <c r="J28" s="38">
+        <v>1</v>
+      </c>
+      <c r="K28" s="39">
+        <f>IF(I28=0,0,J28/I28)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="M28" s="36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>6.2</v>
-      </c>
-      <c r="B23" s="6" t="s">
+    <row r="29" spans="1:13" s="29" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="36">
+        <v>9</v>
+      </c>
+      <c r="B29" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7">
-        <v>5</v>
-      </c>
-      <c r="J23" s="10">
+      <c r="D29" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37">
+        <v>2</v>
+      </c>
+      <c r="J29" s="38">
         <v>1</v>
       </c>
-      <c r="K23" s="11">
-        <f>IF(I23=0,0,J23/I23)</f>
-        <v>0.2</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="K29" s="39">
+        <f>IF(I29=0,0,J29/I29)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="M29" s="36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>7</v>
-      </c>
-      <c r="B24" s="7" t="s">
+    <row r="30" spans="1:13" s="29" customFormat="1" ht="357" x14ac:dyDescent="0.2">
+      <c r="A30" s="36">
+        <v>10</v>
+      </c>
+      <c r="B30" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C30" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="D30" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37">
+        <v>2</v>
+      </c>
+      <c r="J30" s="38">
+        <v>1</v>
+      </c>
+      <c r="K30" s="39">
+        <f t="shared" ref="K30:K31" si="1">IF(I30=0,0,J30/I30)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="M30" s="36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>8</v>
-      </c>
-      <c r="B25" s="7" t="s">
+    <row r="31" spans="1:13" s="29" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="36">
+        <v>11</v>
+      </c>
+      <c r="B31" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C31" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="D31" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37">
+        <v>2</v>
+      </c>
+      <c r="J31" s="38">
+        <v>1</v>
+      </c>
+      <c r="K31" s="39">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="M31" s="36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>9</v>
-      </c>
-      <c r="B26" s="7" t="s">
+    <row r="32" spans="1:13" s="29" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="36">
+        <v>11.1</v>
+      </c>
+      <c r="B32" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C32" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="D32" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37">
+        <v>2</v>
+      </c>
+      <c r="J32" s="38">
+        <v>1</v>
+      </c>
+      <c r="K32" s="39">
+        <f t="shared" ref="K32" si="2">IF(I32=0,0,J32/I32)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="M32" s="36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>10</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>11</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
-        <v>12</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>13</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
-        <v>14</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
-        <v>15</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
-        <v>16</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>69</v>
-      </c>
+    <row r="33" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="11"/>
+      <c r="K33" s="35"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
-        <v>17</v>
-      </c>
-      <c r="B34" s="7" t="s">
+    <row r="34" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>16</v>
+      <c r="C34" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7">
+        <v>13</v>
+      </c>
+      <c r="J34" s="10">
+        <v>5</v>
+      </c>
+      <c r="K34" s="11">
+        <f>IF(I34=0,0,J34/I34)</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>15</v>
@@ -7093,29 +8163,32 @@
         <v>16</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="11"/>
+      <c r="K35" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>15</v>
@@ -7124,29 +8197,32 @@
         <v>16</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="F36" s="7" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="11"/>
+      <c r="K36" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" s="18" customFormat="1" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>15</v>
@@ -7155,29 +8231,32 @@
         <v>16</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="10"/>
-      <c r="K37" s="11"/>
+      <c r="K37" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>15</v>
@@ -7186,29 +8265,32 @@
         <v>16</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="10"/>
-      <c r="K38" s="11"/>
+      <c r="K38" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>15</v>
@@ -7217,29 +8299,32 @@
         <v>16</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="10"/>
-      <c r="K39" s="11"/>
+      <c r="K39" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>15</v>
@@ -7248,19 +8333,19 @@
         <v>16</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="10"/>
@@ -7268,9 +8353,9 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>15</v>
@@ -7279,19 +8364,19 @@
         <v>16</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="10"/>
@@ -7301,7 +8386,7 @@
     </row>
     <row r="42" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>15</v>
@@ -7310,19 +8395,19 @@
         <v>16</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="10"/>
@@ -7330,9 +8415,9 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>15</v>
@@ -7341,19 +8426,19 @@
         <v>16</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="10"/>
@@ -7361,9 +8446,9 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>15</v>
@@ -7372,19 +8457,19 @@
         <v>16</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="10"/>
@@ -7392,9 +8477,9 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>15</v>
@@ -7403,19 +8488,19 @@
         <v>16</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="10"/>
@@ -7423,9 +8508,9 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>15</v>
@@ -7434,19 +8519,19 @@
         <v>16</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="10"/>
@@ -7454,9 +8539,9 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>15</v>
@@ -7465,19 +8550,19 @@
         <v>16</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="10"/>
@@ -7485,9 +8570,9 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="18" customFormat="1" ht="318.75" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>15</v>
@@ -7496,19 +8581,19 @@
         <v>16</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="10"/>
@@ -7516,56 +8601,397 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+    <row r="49" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>21</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="I49" s="7"/>
       <c r="J49" s="10"/>
       <c r="K49" s="11"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
+    <row r="50" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>22</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="I50" s="7"/>
       <c r="J50" s="10"/>
       <c r="K50" s="11"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
+    <row r="51" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>23</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>24</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>25</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>26</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+    </row>
+    <row r="55" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>27</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="7"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>28</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>29</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+    </row>
+    <row r="58" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>30</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+    </row>
+    <row r="59" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>31</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+    </row>
+    <row r="60" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+    </row>
+    <row r="61" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M48">
+  <autoFilter ref="A1:M59">
     <sortState ref="A2:O24">
       <sortCondition ref="K1"/>
     </sortState>
   </autoFilter>
   <dataValidations xWindow="1023" yWindow="304" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J61">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L61">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I61">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B61">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C61">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="216">
   <si>
     <t>Anodiam</t>
   </si>
@@ -4515,148 +4515,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">I can not log in to anodiam.com and view the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Student Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. I must be sent back to the login page with a login validation message (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Login failure. Not a valid Anodiam username.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) displayed on top in red.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned but registered user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I fill up the username and password fields invalid username in the login page and click on the Login button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be not able to view the Anodiam Student Home Page.  I must be sent back to the login page with a login validation message (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Login failure. Not a valid Anodiam username.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) displayed on top in red.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Fill up the username and password fields with balid username but invalid password in the login page and click on the </t>
     </r>
     <r>
@@ -4677,148 +4535,6 @@
         <family val="2"/>
       </rPr>
       <t>button.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can not log in to anodiam.com and view the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Student Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. I must be sent back to the login page with a login validation message (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Login failure! Incorrect password.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) displayed on top in red.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned but registered user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I fill up the username and password fields invalid username in the login page and click on the Login button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be not able to view the Anodiam Student Home Page.  I must be sent back to the login page with a login validation message (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Login failure! Incorrect password.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) displayed on top in red.</t>
     </r>
   </si>
   <si>
@@ -6168,6 +5884,148 @@
         <family val="2"/>
       </rPr>
       <t>I should be able to save my updated values on my profile page and I get a proper validation message displayed on top of my profile page: Invalid email OR Invalid phone number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can not log in to anodiam.com and view the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. I must be sent back to the login page with a login validation message (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Unauthorized login attempt! Wrong username or password.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) displayed on top in red.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned but registered user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I fill up the username and password fields invalid username in the login page and click on the Login button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be not able to view the Anodiam Student Home Page.  I must be sent back to the login page with a login validation message (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Unauthorized login attempt! Wrong username or password.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) displayed on top in red.</t>
     </r>
   </si>
 </sst>
@@ -6416,17 +6274,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -6442,6 +6289,17 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6676,31 +6534,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -6774,8 +6632,8 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6850,13 +6708,13 @@
         <v>28</v>
       </c>
       <c r="E2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>25</v>
@@ -6892,13 +6750,13 @@
         <v>28</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>25</v>
@@ -7012,13 +6870,13 @@
         <v>28</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>156</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>26</v>
@@ -7294,7 +7152,7 @@
     </row>
     <row r="13" spans="1:13" s="28" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>15</v>
@@ -7306,13 +7164,13 @@
         <v>28</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -7545,13 +7403,13 @@
         <v>126</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>25</v>
@@ -7587,13 +7445,13 @@
         <v>126</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>25</v>
@@ -7716,10 +7574,10 @@
         <v>172</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="H23" s="22" t="s">
         <v>25</v>
@@ -7731,7 +7589,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="24">
-        <f>IF(I23=0,0,J23/I23)</f>
+        <f t="shared" ref="K23:K29" si="1">IF(I23=0,0,J23/I23)</f>
         <v>1</v>
       </c>
       <c r="L23" s="21" t="s">
@@ -7755,13 +7613,13 @@
         <v>31</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>25</v>
@@ -7773,7 +7631,7 @@
         <v>5</v>
       </c>
       <c r="K24" s="24">
-        <f>IF(I24=0,0,J24/I24)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L24" s="21" t="s">
@@ -7797,13 +7655,13 @@
         <v>126</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F25" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>193</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="H25" s="22" t="s">
         <v>25</v>
@@ -7815,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="24">
-        <f>IF(I25=0,0,J25/I25)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="L25" s="21" t="s">
@@ -7826,282 +7684,282 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="36">
+      <c r="A26" s="31">
         <v>6</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37">
+      <c r="E26" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32">
         <v>2</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="33">
         <v>1</v>
       </c>
-      <c r="K26" s="39">
-        <f>IF(I26=0,0,J26/I26)</f>
+      <c r="K26" s="34">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="L26" s="36" t="s">
+      <c r="L26" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="M26" s="36">
+      <c r="M26" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="36">
+      <c r="A27" s="31">
         <v>7</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F27" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37">
+      <c r="G27" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32">
         <v>2</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="33">
         <v>1</v>
       </c>
-      <c r="K27" s="39">
-        <f>IF(I27=0,0,J27/I27)</f>
+      <c r="K27" s="34">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="L27" s="36" t="s">
+      <c r="L27" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="M27" s="36">
+      <c r="M27" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="36">
+      <c r="A28" s="31">
         <v>8</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37">
+      <c r="E28" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32">
         <v>2</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="33">
         <v>1</v>
       </c>
-      <c r="K28" s="39">
-        <f>IF(I28=0,0,J28/I28)</f>
+      <c r="K28" s="34">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="M28" s="36">
+      <c r="M28" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="29" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="36">
+      <c r="A29" s="31">
         <v>9</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="G29" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37">
+      <c r="E29" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32">
         <v>2</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="33">
         <v>1</v>
       </c>
-      <c r="K29" s="39">
-        <f>IF(I29=0,0,J29/I29)</f>
+      <c r="K29" s="34">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="L29" s="36" t="s">
+      <c r="L29" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="M29" s="36">
+      <c r="M29" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="29" customFormat="1" ht="357" x14ac:dyDescent="0.2">
-      <c r="A30" s="36">
+      <c r="A30" s="31">
         <v>10</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="G30" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37">
+      <c r="E30" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32">
         <v>2</v>
       </c>
-      <c r="J30" s="38">
+      <c r="J30" s="33">
         <v>1</v>
       </c>
-      <c r="K30" s="39">
-        <f t="shared" ref="K30:K31" si="1">IF(I30=0,0,J30/I30)</f>
+      <c r="K30" s="34">
+        <f t="shared" ref="K30:K31" si="2">IF(I30=0,0,J30/I30)</f>
         <v>0.5</v>
       </c>
-      <c r="L30" s="36" t="s">
+      <c r="L30" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="M30" s="36">
+      <c r="M30" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="29" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="36">
+      <c r="A31" s="31">
         <v>11</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37">
+      <c r="E31" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32">
         <v>2</v>
       </c>
-      <c r="J31" s="38">
+      <c r="J31" s="33">
         <v>1</v>
       </c>
-      <c r="K31" s="39">
-        <f t="shared" si="1"/>
+      <c r="K31" s="34">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="L31" s="36" t="s">
+      <c r="L31" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="M31" s="36">
+      <c r="M31" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="29" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="36">
+      <c r="A32" s="31">
         <v>11.1</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37">
+      <c r="E32" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32">
         <v>2</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32" s="33">
         <v>1</v>
       </c>
-      <c r="K32" s="39">
-        <f t="shared" ref="K32" si="2">IF(I32=0,0,J32/I32)</f>
+      <c r="K32" s="34">
+        <f t="shared" ref="K32" si="3">IF(I32=0,0,J32/I32)</f>
         <v>0.5</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="L32" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="M32" s="36">
+      <c r="M32" s="31">
         <v>1</v>
       </c>
     </row>
@@ -8116,7 +7974,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="35"/>
+      <c r="K33" s="30"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -16,7 +16,7 @@
     <sheet name="MVPProductBacklog" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MVPProductBacklog!$A$1:$M$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MVPProductBacklog!$A$1:$M$63</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="227">
   <si>
     <t>Anodiam</t>
   </si>
@@ -333,49 +333,6 @@
     <t>004MVPStudentAppWireframes.pptx &gt;&gt; Student Registration Page</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I can view the Anodiam </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> containing link to register and a login section.</t>
-    </r>
-  </si>
-  <si>
     <t>Unsigned user</t>
   </si>
   <si>
@@ -403,67 +360,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I Click on the Already registered? Login link on the registration page of anodiam.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to view the Anodiam home page: containing link to register and a login section.</t>
-    </r>
-  </si>
-  <si>
     <t>Unsigned registered user</t>
   </si>
   <si>
@@ -497,49 +393,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> hyperlink or Anodiam logo image on the menu bar of any page in anodiam.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can log in to anodiam.com and view the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Student Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
     </r>
   </si>
   <si>
@@ -2786,67 +2639,6 @@
     <t>MVP Product Backlog</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned but registered user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I fill up the username and password fields in the login page and click on the Login button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to view the Anodiam Student Home Page: containing a welcome message with my (first and last) name at the top.</t>
-    </r>
-  </si>
-  <si>
     <t>Scheduled</t>
   </si>
   <si>
@@ -2854,9 +2646,6 @@
   </si>
   <si>
     <t>Enabler</t>
-  </si>
-  <si>
-    <t>Epic</t>
   </si>
   <si>
     <t>User registration fields (username, password, email) may contain personal information and must be encrypted at rest and inflight at all times</t>
@@ -4799,105 +4588,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am an unsigned user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Register here</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> link on the home page of anodiam.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I should be able to view the Anodiam registration page: containing a link to login page (Already registered? </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Login here</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) and a registration section. </t>
-    </r>
-  </si>
-  <si>
     <t>Enter invalid username
 (Less than 8 characters long)
 in the registration section of the Student Registration Page and (fill up legitimate values for email, password and confirm password) and click on the Register button.</t>
@@ -5268,6 +4958,64 @@
   </si>
   <si>
     <r>
+      <t>I can see a welcome messaage on top, saying "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Welcome {username)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" in case my firstname does not exist in my profile. Otherwise the message should display</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Welcome {firstname}"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I should be signed out of anodiam. I should be sent to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page. The navbar links will show only Login and Register links. The welcome message will also not be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="10"/>
@@ -5304,6 +5052,70 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> Click on the Logout link of the navbar
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I should be signed out of anodiam. I should be sent to the Login page. The navbar links will show only Login and Register links. The welcome message will also not be displayed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Edit the prepopulated profile values (or empty fielsds for first time edit) on my profile page with wrong format values for email or phone numbers and Click on the Save button</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a signed in user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> Sign into anodiam and land up to view my Home page
 </t>
     </r>
@@ -5324,41 +5136,94 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>I should be able to see a welcome messaage on top, saying "Welcome {username)" in case my firstname does not exist in my profile. Otherwise the message should display "Welcome {firstname}"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I can see a welcome messaage on top, saying "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Welcome {username)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>" in case my firstname does not exist in my profile. Otherwise the message should display</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "Welcome {firstname}"</t>
+      <t>I should be able to see a paginated list of all courses prescribed for me at the body of the home page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can see a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>paginated list of all courses prescribed for me at the body of the home page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Logout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link of the navbar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>My Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link of the navbar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Edit the prepopulated profile values (or empty fielsds for first time edit) on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>My Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page with all legitimate values and Click on the Save button</t>
     </r>
   </si>
   <si>
@@ -5399,7 +5264,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Sign into anodiam and land up to view my Home page
+      <t xml:space="preserve"> I Edit the prepopulated profile values (or empty fielsds for first time edit) of profile form on my profile page with all legitimate values and Click on the Save button
 </t>
     </r>
     <r>
@@ -5419,77 +5284,65 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">I should be able to see the following links in the responsive </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Navbar:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Home (on left side), search a course (text input area with a search button in the middle) and Profile &amp; Logout links at the right.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I can see the following links in the responsive </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Navbar:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Home (on left side), search a course (text input area with a search button in the middle) and Profile &amp; Logout links at the right.</t>
-    </r>
-  </si>
-  <si>
-    <t>Click on the Logout link of the navbar</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I should be signed out of anodiam. I should be sent to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> page. The navbar links will show only Login and Register links. The welcome message will also not be displayed</t>
+      <t>I should be able to save my updated values on my profile page and I get a message displayed on top of my profile page: Student profile saved syccessfully!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can save my updated values (or empty fielsds for first time edit) of profile form on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">My Profile </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page and I get a message displayed on top of My Profile page: Student profile saved syccessfully!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I cannot save my updated values  of profile form on My Profile page and I get a proper validation message displayed on top of my profile page: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Invalid email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Invalid phone number</t>
     </r>
   </si>
   <si>
@@ -5530,7 +5383,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Click on the Logout link of the navbar
+      <t xml:space="preserve"> I Edit the prepopulated profile values  of profile form on My Profile page (or empty fielsds for first time edit) on my profile page with wrong format values for email or phone numbers and Click on the Save button
 </t>
     </r>
     <r>
@@ -5550,81 +5403,33 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>I should be signed out of anodiam. I should be sent to the Login page. The navbar links will show only Login and Register links. The welcome message will also not be displayed.</t>
-    </r>
-  </si>
-  <si>
-    <t>Click on the Home link of the navbar</t>
-  </si>
-  <si>
-    <t>I can visit my home page. I can see the following links in the responsive Navbar: Home (on left side), search a course (text input area with a search button in the middle) and Profile &amp; Logout links at the right. Also I can see a welcome messaage on top, saying "Welcome {username)" in case my firstname does not exist in my profile. Otherwise the message should display "Welcome {firstname}"</t>
-  </si>
-  <si>
-    <t>Click on the Profile link of the navbar</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Given</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I am a signed in user
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Click on the Home link of the navbar
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Then </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>I should be able to visit my home page. I can see the following links in the responsive Navbar: Home (on left side), search a course (text input area with a search button in the middle) and Profile &amp; Logout links at the right. Also I can see a welcome messaage on top, saying "Welcome {username)" in case my firstname does not exist in my profile. Otherwise the message should display "Welcome {firstname}"</t>
-    </r>
-  </si>
-  <si>
-    <t>I can visit my profile page. The logged in Navbar and welcome message will continue to display. In the body of the profile page I can see a form displaying following Text fields with any existing data pre-populated in those fields:
+      <t>I should be able to save my updated values on my profile page and I get a proper validation message displayed on top of my profile page: Invalid email OR Invalid phone number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can visit </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>My Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page. The logged in Navbar and welcome message will continue to display. In the body of the profile page I can see 
+1. my profile image (default humanoid image if no image uploaded) (with edit image camera button)
+2. A form displaying following Text fields with any existing data pre-populated in those fields:
 First name.
 Middle name:
 Last name:
@@ -5642,6 +5447,7 @@
 State:
 Text fields for City and ZIP code
 And a Save button at the end.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -5681,7 +5487,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I click on the Profile link of the navbar
+      <t xml:space="preserve"> I click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>My Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link of the navbar
 </t>
     </r>
     <r>
@@ -5701,7 +5526,28 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>I should be able to visit my profile page. The logged in Navbar and welcome message will continue to display. In the body of the profile page I can see a form displaying following Text fields with any existing data pre-populated in those fields:
+      <t xml:space="preserve">I should be able to visit </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>My Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page. The logged in Navbar and welcome message will continue to display. In the body of the profile page I can see 
+1. my profile image (default humanoid image if no image uploaded) (with edit image camera button)
+2. A form displaying following Text fields with any existing data pre-populated in those fields:
 First name.
 Middle name:
 Last name:
@@ -5722,10 +5568,31 @@
     </r>
   </si>
   <si>
-    <t>Edit the prepopulated profile values (or empty fielsds for first time edit) on my profile page with all legitimate values and Click on the Save button</t>
-  </si>
-  <si>
-    <t>I can save my updated values on my profile page and I get a message displayed on top of my profile page: Student profile saved syccessfully!</t>
+    <t>I can open my local images folders to select a new profile image.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the edit profile image camera on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>My Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
   </si>
   <si>
     <r>
@@ -5765,7 +5632,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I Edit the prepopulated profile values (or empty fielsds for first time edit) on my profile page with all legitimate values and Click on the Save button
+      <t xml:space="preserve"> I click on the edit profile image camera on My Profile page
 </t>
     </r>
     <r>
@@ -5785,45 +5652,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>I should be able to save my updated values on my profile page and I get a message displayed on top of my profile page: Student profile saved syccessfully!</t>
-    </r>
-  </si>
-  <si>
-    <t>Edit the prepopulated profile values (or empty fielsds for first time edit) on my profile page with wrong format values for email or phone numbers and Click on the Save button</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I cannot save my updated values on my profile page and I get a proper validation message displayed on top of my profile page: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Invalid email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> OR </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Invalid phone number</t>
-    </r>
+      <t>I should be able to open my local images folders to select a new profile image.</t>
+    </r>
+  </si>
+  <si>
+    <t>I can upload the selected image as my new profile image.</t>
+  </si>
+  <si>
+    <t>Select a valid image from local images folders and click on save.</t>
   </si>
   <si>
     <r>
@@ -5863,7 +5699,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I Edit the prepopulated profile values (or empty fielsds for first time edit) on my profile page with wrong format values for email or phone numbers and Click on the Save button
+      <t xml:space="preserve"> I select a valid image from local images folders and click on save.
 </t>
     </r>
     <r>
@@ -5883,7 +5719,400 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>I should be able to save my updated values on my profile page and I get a proper validation message displayed on top of my profile page: Invalid email OR Invalid phone number</t>
+      <t>I should be able to upload the selected image as my new profile image.</t>
+    </r>
+  </si>
+  <si>
+    <t>Select an invalid image (not of image jpg, jpeg, png, bmp etc format or larger than 1 mb) from local images folders and click on save.</t>
+  </si>
+  <si>
+    <t>I cannot upload my profile image and I get an error message: Invalid image, please select an image of bmp, jpeg, jpg, png etc format of size less than 1 mb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a signed in user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I select an invalid image (not of image jpg, jpeg, png, bmp etc format or larger than 1 mb) from local images folders and click on save.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I should not be able to upload my profile image and I should get an error message: Invalid image, please select an image of bmp, jpeg, jpg, png etc format of size less than 1 mb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Register here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> link on the index / login page of anodiam.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the Anodiam registration page: containing a link to login page (Already registered? </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Login here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) and a registration section. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can view the Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Buy Courses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> containing link to register and a login section.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Click on the Already registered? Login link on the registration page of anodiam.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the Anodiam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Buy Courses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page: containing link to register and a login section.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can log in to anodiam.com and view the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Buy Courses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned but registered user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I fill up the username and password fields in the login page and click on the Login button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the Anodiam Buy Courses Page: containing a welcome message with my (first and last) name at the top.</t>
     </r>
   </si>
   <si>
@@ -5898,7 +6127,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Student Home</t>
+      <t>Buy Courses</t>
     </r>
     <r>
       <rPr>
@@ -6006,7 +6235,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> I should be not able to view the Anodiam Student Home Page.  I must be sent back to the login page with a login validation message (</t>
+      <t xml:space="preserve"> I should be not able to view the Anodiam Buy Courses Page.  I must be sent back to the login page with a login validation message (</t>
     </r>
     <r>
       <rPr>
@@ -6026,6 +6255,344 @@
         <family val="2"/>
       </rPr>
       <t>) displayed on top in red.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sign into anodiam and land up to view </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Buy Courses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a signed in user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sign into anodiam and land up to view </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Buy Courses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I should be able to see a welcome messaage on top, saying "Welcome {username)" in case my firstname does not exist in my profile. Otherwise the message should display "Welcome {firstname}"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can see the following links in the responsive </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Navbar:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Anodiam logo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (link to Buy Courses) (on left side)
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>My Courses, My Profile &amp; Logout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> links at the right.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a signed in user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sign into anodiam and land up to view Buy Courses page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">I should be able to see the following links in the responsive </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Navbar:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Anodiam logo (link to Buy Courses) (on left side)
+2. My Courses &amp; Logout links at the right.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Anodiam logo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (link to Buy Courses) of the navbar</t>
+    </r>
+  </si>
+  <si>
+    <t>I can visit my Buy Courses page.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am a signed in user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Click on the Buy Courses link of the navbar
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I should be able to visit my Buy Courses page</t>
     </r>
   </si>
 </sst>
@@ -6207,7 +6774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6289,6 +6856,7 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6300,6 +6868,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6534,31 +7103,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="A2" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -6629,11 +7198,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6642,9 +7211,9 @@
     <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="56.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="52" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
@@ -6673,7 +7242,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>22</v>
@@ -6705,16 +7274,16 @@
         <v>16</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>25</v>
@@ -6726,11 +7295,11 @@
         <v>5</v>
       </c>
       <c r="K2" s="24">
-        <f t="shared" ref="K2:K39" si="0">IF(I2=0,0,J2/I2)</f>
+        <f t="shared" ref="K2:K43" si="0">IF(I2=0,0,J2/I2)</f>
         <v>2.5</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M2" s="21">
         <v>1</v>
@@ -6747,16 +7316,16 @@
         <v>16</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>25</v>
@@ -6772,7 +7341,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M3" s="21">
         <v>1</v>
@@ -6789,16 +7358,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>26</v>
@@ -6814,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M4" s="21">
         <v>1</v>
@@ -6825,7 +7394,7 @@
         <v>3.1</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>16</v>
@@ -6833,10 +7402,10 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22">
@@ -6850,7 +7419,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M5" s="21">
         <v>1</v>
@@ -6858,7 +7427,7 @@
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>15</v>
@@ -6867,16 +7436,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>26</v>
@@ -6892,7 +7461,7 @@
         <v>2.5</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M6" s="21">
         <v>1</v>
@@ -6900,7 +7469,7 @@
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>15</v>
@@ -6909,16 +7478,16 @@
         <v>16</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>26</v>
@@ -6934,7 +7503,7 @@
         <v>2.5</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M7" s="21">
         <v>1</v>
@@ -6942,7 +7511,7 @@
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>15</v>
@@ -6951,16 +7520,16 @@
         <v>16</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>26</v>
@@ -6976,7 +7545,7 @@
         <v>2.5</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M8" s="21">
         <v>1</v>
@@ -6984,7 +7553,7 @@
     </row>
     <row r="9" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>15</v>
@@ -6993,16 +7562,16 @@
         <v>16</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>26</v>
@@ -7018,7 +7587,7 @@
         <v>2.5</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M9" s="21">
         <v>1</v>
@@ -7026,7 +7595,7 @@
     </row>
     <row r="10" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>15</v>
@@ -7035,16 +7604,16 @@
         <v>16</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>26</v>
@@ -7060,7 +7629,7 @@
         <v>2.5</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M10" s="21">
         <v>1</v>
@@ -7068,7 +7637,7 @@
     </row>
     <row r="11" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>15</v>
@@ -7077,16 +7646,16 @@
         <v>16</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>26</v>
@@ -7102,7 +7671,7 @@
         <v>2.5</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M11" s="21">
         <v>1</v>
@@ -7110,7 +7679,7 @@
     </row>
     <row r="12" spans="1:13" s="26" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>15</v>
@@ -7119,16 +7688,16 @@
         <v>16</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>26</v>
@@ -7144,7 +7713,7 @@
         <v>2.5</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M12" s="21">
         <v>1</v>
@@ -7152,7 +7721,7 @@
     </row>
     <row r="13" spans="1:13" s="28" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>15</v>
@@ -7161,16 +7730,16 @@
         <v>16</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -7181,7 +7750,7 @@
     </row>
     <row r="14" spans="1:13" s="19" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>15</v>
@@ -7190,16 +7759,16 @@
         <v>16</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>26</v>
@@ -7215,7 +7784,7 @@
         <v>2.5</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M14" s="21">
         <v>1</v>
@@ -7223,7 +7792,7 @@
     </row>
     <row r="15" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>15</v>
@@ -7232,16 +7801,16 @@
         <v>16</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>26</v>
@@ -7257,7 +7826,7 @@
         <v>2.5</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M15" s="21">
         <v>1</v>
@@ -7274,16 +7843,16 @@
         <v>16</v>
       </c>
       <c r="D16" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>131</v>
-      </c>
       <c r="F16" s="22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>26</v>
@@ -7299,7 +7868,7 @@
         <v>1.5</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M16" s="21">
         <v>1</v>
@@ -7316,16 +7885,16 @@
         <v>16</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>26</v>
@@ -7341,7 +7910,7 @@
         <v>0.5</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M17" s="21">
         <v>1</v>
@@ -7358,16 +7927,16 @@
         <v>16</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E18" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>133</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>138</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>25</v>
@@ -7383,7 +7952,7 @@
         <v>0.5</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M18" s="21">
         <v>1</v>
@@ -7400,16 +7969,16 @@
         <v>16</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>25</v>
@@ -7425,7 +7994,7 @@
         <v>0.5</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M19" s="21">
         <v>1</v>
@@ -7442,16 +8011,16 @@
         <v>16</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>25</v>
@@ -7467,7 +8036,7 @@
         <v>0.5</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M20" s="21">
         <v>1</v>
@@ -7484,16 +8053,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>29</v>
-      </c>
       <c r="F21" s="22" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="H21" s="22" t="s">
         <v>26</v>
@@ -7509,7 +8078,7 @@
         <v>2.5</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M21" s="21">
         <v>1</v>
@@ -7526,16 +8095,16 @@
         <v>16</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="H22" s="22" t="s">
         <v>25</v>
@@ -7551,7 +8120,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M22" s="21">
         <v>1</v>
@@ -7568,16 +8137,16 @@
         <v>16</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H23" s="22" t="s">
         <v>25</v>
@@ -7589,11 +8158,11 @@
         <v>5</v>
       </c>
       <c r="K23" s="24">
-        <f t="shared" ref="K23:K29" si="1">IF(I23=0,0,J23/I23)</f>
+        <f t="shared" ref="K23:K27" si="1">IF(I23=0,0,J23/I23)</f>
         <v>1</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M23" s="21">
         <v>1</v>
@@ -7610,16 +8179,16 @@
         <v>16</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>25</v>
@@ -7635,7 +8204,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M24" s="21">
         <v>1</v>
@@ -7652,16 +8221,16 @@
         <v>16</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H25" s="22" t="s">
         <v>25</v>
@@ -7677,13 +8246,13 @@
         <v>0.5</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M25" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="29" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31">
         <v>6</v>
       </c>
@@ -7694,16 +8263,16 @@
         <v>16</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="H26" s="32"/>
       <c r="I26" s="32">
@@ -7717,13 +8286,13 @@
         <v>0.5</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M26" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="29" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A27" s="31">
         <v>7</v>
       </c>
@@ -7734,16 +8303,16 @@
         <v>16</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="32">
@@ -7757,10 +8326,10 @@
         <v>0.5</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M27" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="29" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
@@ -7774,16 +8343,16 @@
         <v>16</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="32">
@@ -7793,17 +8362,17 @@
         <v>1</v>
       </c>
       <c r="K28" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(I28=0,0,J28/I28)</f>
         <v>0.5</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M28" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="29" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="31">
         <v>9</v>
       </c>
@@ -7814,16 +8383,16 @@
         <v>16</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32">
@@ -7833,14 +8402,14 @@
         <v>1</v>
       </c>
       <c r="K29" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(I29=0,0,J29/I29)</f>
         <v>0.5</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M29" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="29" customFormat="1" ht="357" x14ac:dyDescent="0.2">
@@ -7854,16 +8423,16 @@
         <v>16</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="32">
@@ -7877,10 +8446,10 @@
         <v>0.5</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M30" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="29" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
@@ -7894,16 +8463,16 @@
         <v>16</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="32">
@@ -7917,13 +8486,13 @@
         <v>0.5</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M31" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="29" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="29" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A32" s="31">
         <v>11.1</v>
       </c>
@@ -7934,16 +8503,16 @@
         <v>16</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="H32" s="32"/>
       <c r="I32" s="32">
@@ -7953,202 +8522,215 @@
         <v>1</v>
       </c>
       <c r="K32" s="34">
-        <f t="shared" ref="K32" si="3">IF(I32=0,0,J32/I32)</f>
+        <f t="shared" ref="K32:K33" si="3">IF(I32=0,0,J32/I32)</f>
         <v>0.5</v>
       </c>
       <c r="L32" s="31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M32" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="35" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="31">
+        <v>12</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32">
+        <v>2</v>
+      </c>
+      <c r="J33" s="33">
         <v>1</v>
       </c>
+      <c r="K33" s="34">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="L33" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" s="31">
+        <v>2</v>
+      </c>
     </row>
-    <row r="33" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+    <row r="34" spans="1:13" s="35" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="31">
+        <v>12.1</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32">
+        <v>2</v>
+      </c>
+      <c r="J34" s="33">
+        <v>1</v>
+      </c>
+      <c r="K34" s="34">
+        <f t="shared" ref="K34" si="4">IF(I34=0,0,J34/I34)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="M34" s="31">
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
+    <row r="35" spans="1:13" s="35" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A35" s="31">
+        <v>12.2</v>
+      </c>
+      <c r="B35" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7">
-        <v>13</v>
-      </c>
-      <c r="J34" s="10">
-        <v>5</v>
-      </c>
-      <c r="K34" s="11">
-        <f>IF(I34=0,0,J34/I34)</f>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="6"/>
+      <c r="C35" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32">
+        <v>2</v>
+      </c>
+      <c r="J35" s="33">
+        <v>1</v>
+      </c>
+      <c r="K35" s="34">
+        <f t="shared" ref="K35" si="5">IF(I35=0,0,J35/I35)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="M35" s="31">
+        <v>2</v>
+      </c>
     </row>
-    <row r="35" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
-        <v>7</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
-        <v>8</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>40</v>
-      </c>
+    <row r="36" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K36" s="30"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
-        <v>9</v>
-      </c>
-      <c r="B37" s="7" t="s">
+    <row r="37" spans="1:13" s="41" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="10"/>
-      <c r="K37" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="6"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
-        <v>10</v>
-      </c>
-      <c r="B38" s="7" t="s">
+    <row r="38" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7">
+        <v>13</v>
+      </c>
+      <c r="J38" s="10">
+        <v>5</v>
+      </c>
       <c r="K38" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="6"/>
+        <f>IF(I38=0,0,J38/I38)</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>15</v>
@@ -8157,19 +8739,19 @@
         <v>16</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="10"/>
@@ -8180,9 +8762,9 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>15</v>
@@ -8191,29 +8773,32 @@
         <v>16</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="F40" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="10"/>
-      <c r="K40" s="11"/>
+      <c r="K40" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
     <row r="41" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>15</v>
@@ -8222,29 +8807,32 @@
         <v>16</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="10"/>
-      <c r="K41" s="11"/>
+      <c r="K41" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>15</v>
@@ -8253,29 +8841,32 @@
         <v>16</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="10"/>
-      <c r="K42" s="11"/>
+      <c r="K42" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>15</v>
@@ -8284,29 +8875,32 @@
         <v>16</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="10"/>
-      <c r="K43" s="11"/>
+      <c r="K43" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>15</v>
@@ -8315,19 +8909,19 @@
         <v>16</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="10"/>
@@ -8335,9 +8929,9 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>15</v>
@@ -8346,19 +8940,19 @@
         <v>16</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="10"/>
@@ -8366,9 +8960,9 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>15</v>
@@ -8377,19 +8971,19 @@
         <v>16</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="10"/>
@@ -8397,9 +8991,9 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>15</v>
@@ -8408,19 +9002,19 @@
         <v>16</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="10"/>
@@ -8428,9 +9022,9 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" s="18" customFormat="1" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>15</v>
@@ -8439,19 +9033,19 @@
         <v>16</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="10"/>
@@ -8459,9 +9053,9 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>15</v>
@@ -8470,19 +9064,19 @@
         <v>16</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="10"/>
@@ -8492,7 +9086,7 @@
     </row>
     <row r="50" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>15</v>
@@ -8501,19 +9095,19 @@
         <v>16</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="10"/>
@@ -8521,9 +9115,9 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>15</v>
@@ -8532,19 +9126,19 @@
         <v>16</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="10"/>
@@ -8552,9 +9146,9 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="18" customFormat="1" ht="318.75" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>15</v>
@@ -8563,19 +9157,19 @@
         <v>16</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="10"/>
@@ -8585,7 +9179,7 @@
     </row>
     <row r="53" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>15</v>
@@ -8594,19 +9188,19 @@
         <v>16</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="10"/>
@@ -8614,9 +9208,9 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>15</v>
@@ -8625,19 +9219,19 @@
         <v>16</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="10"/>
@@ -8645,9 +9239,9 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>15</v>
@@ -8656,19 +9250,19 @@
         <v>16</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="10"/>
@@ -8676,9 +9270,9 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>15</v>
@@ -8687,19 +9281,19 @@
         <v>16</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="10"/>
@@ -8707,9 +9301,9 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>15</v>
@@ -8718,19 +9312,19 @@
         <v>16</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="10"/>
@@ -8738,9 +9332,9 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>15</v>
@@ -8749,19 +9343,19 @@
         <v>16</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="10"/>
@@ -8769,9 +9363,9 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
     </row>
-    <row r="59" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>15</v>
@@ -8780,19 +9374,19 @@
         <v>16</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="10"/>
@@ -8800,56 +9394,178 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
+    <row r="60" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>28</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="I60" s="7"/>
       <c r="J60" s="10"/>
       <c r="K60" s="11"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+    <row r="61" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>29</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="I61" s="7"/>
       <c r="J61" s="10"/>
       <c r="K61" s="11"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
     </row>
+    <row r="62" spans="1:13" s="18" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>30</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+    </row>
+    <row r="63" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>31</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+    </row>
+    <row r="64" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+    </row>
+    <row r="65" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M59">
+  <autoFilter ref="A1:M63">
     <sortState ref="A2:O24">
       <sortCondition ref="K1"/>
     </sortState>
   </autoFilter>
   <dataValidations xWindow="1023" yWindow="304" count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J65">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L65">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I65">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B65">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C64">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -6857,6 +6857,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6868,7 +6869,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7103,31 +7103,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -7201,8 +7201,8 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7467,7 +7467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="19" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>144</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>149</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>165</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>166</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="28" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="28" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>179</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>139</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="28" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="28" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>3.8</v>
       </c>
@@ -8667,7 +8667,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" s="41" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="36" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
         <v>15</v>
@@ -8762,7 +8762,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>8</v>
       </c>
@@ -8830,7 +8830,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>10</v>
       </c>
@@ -8991,7 +8991,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>15</v>
       </c>
@@ -9022,7 +9022,7 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" s="18" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>16</v>
       </c>
@@ -9146,7 +9146,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" s="18" customFormat="1" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="18" customFormat="1" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>20</v>
       </c>
@@ -9177,7 +9177,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>21</v>
       </c>
@@ -9239,7 +9239,7 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" s="18" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="18" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>23</v>
       </c>
@@ -9270,7 +9270,7 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="1:13" s="18" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="18" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>24</v>
       </c>
@@ -9332,7 +9332,7 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" s="18" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="18" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>26</v>
       </c>
@@ -9487,7 +9487,7 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
     </row>
-    <row r="63" spans="1:13" s="18" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" s="18" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>31</v>
       </c>

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -13,10 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="MVPProductBacklog" sheetId="2" r:id="rId2"/>
+    <sheet name="MobileProdBacklog" sheetId="3" r:id="rId2"/>
+    <sheet name="WebProdBacklog" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MVPProductBacklog!$A$1:$M$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">WebProdBacklog!$A$1:$M$63</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -248,8 +249,234 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sydney</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Help:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Acceptance Criteria in Product Backlog comprises of 3 fields, namely:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Given, When Then.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Here all 4 fields should be colated into one.
+E.g. Acceptance criteria for following should be as below:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User Story</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: As a logged out User I want to be able to sign into the website, so that I can see my profile.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Acceptance Criteria</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Scenario:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Registered User Signs with valid username and password.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Given: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">I am logged out of website.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>When:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> I fill in the username and password fields with my valid credentials and click in sign in button
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Then:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> I get signed into the website.
+Here,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Acceptance Criteria</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> could be written in 1 sentence as below:
+Given I am logged out of website, if I fill in the username and password fields with my valid credentials and click in sign in button, I should get signed into the website.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Help:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>XS         :    1 Story Point       :     0 to 2 person hours
+S            :   2 Story Points     :     2 to 4 person hours
+M           :   3 Story Points     :     4 to 8 person hours
+L             :   5 Story Points      :     1 to 1.5 person days
+XL          :   8 Story Points     :     1.5 to 2.5 person days
+XXL       :   13 Story Points    :     0.5 to 1 person weeks
+XXXL    :   21 Story Points    :     Larger and never used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="311">
   <si>
     <t>Anodiam</t>
   </si>
@@ -6595,12 +6822,2020 @@
       <t>I should be able to visit my Buy Courses page</t>
     </r>
   </si>
+  <si>
+    <t>006WireframeMVPStudentMobileApp.pptx</t>
+  </si>
+  <si>
+    <t>Tap on the Anodiam icon on my smart phone</t>
+  </si>
+  <si>
+    <t>Install Anodiam MVP Mobile App from Apple App Store on my iPhone or iPad
+OR
+from Android Play Store on my Android device</t>
+  </si>
+  <si>
+    <t>I can view the Anodiam icon on my Apple iPhone or iPad
+OR
+on my Android device</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Install Anodiam MVP Mobile App from Apple App Store on my iPhone or iPad
+OR
+from Android Play Store on my Android device
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the Anodiam icon on my Apple iPhone or iPad
+OR
+on my Android device</t>
+    </r>
+  </si>
+  <si>
+    <t>I can view the the splash screen of the anodiam Student MVP app</t>
+  </si>
+  <si>
+    <t>Tap the LOGIN button on the splash screen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Tap on the Anodiam icon on my smart phone
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the splash screen of the Anodiam Student MVP app</t>
+    </r>
+  </si>
+  <si>
+    <t>Tap the SIGNUP button on the splash screen</t>
+  </si>
+  <si>
+    <t>I can view the signup screen</t>
+  </si>
+  <si>
+    <t>I can view the login screen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Tap the LOGIN button on the splash screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the login screen</t>
+    </r>
+  </si>
+  <si>
+    <t>Tap the SIGNUP button on the LOGIN screen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Tap the SIGNUP button on the splash screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the signup screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Tap the SIGNUP button on the LOGIN screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the signup screen</t>
+    </r>
+  </si>
+  <si>
+    <t>Tap the SIGNIN button on the SIGNUP screen</t>
+  </si>
+  <si>
+    <t>I can view the LOGIN screen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Tap the SIGNIN button on the SIGNUP screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to view the LOGIN screen</t>
+    </r>
+  </si>
+  <si>
+    <t>Type in Invalid Email format in the "Your Email"  field of the SIGNUP screen</t>
+  </si>
+  <si>
+    <t>I can see validation message: "Invalid email format"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Type in Invalid Email format in the "Your Email"  field of the SIGNUP screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see validation message: "Invalid email format"</t>
+    </r>
+  </si>
+  <si>
+    <t>I can see validation message: "Email address is required"</t>
+  </si>
+  <si>
+    <t>I can see validation message: "Email address already registered"</t>
+  </si>
+  <si>
+    <t>Type in Invalid Email format in the "Inviter's Email"  field of the SIGNUP screen</t>
+  </si>
+  <si>
+    <t>Keep "Your Email" field blank in the SIGNUP screen and tap outside</t>
+  </si>
+  <si>
+    <t>Enter an already existing email address in "Your Email" in the SIGNUP screen and tap outside</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Enter an already existing email address in "Your Email" in the SIGNUP screen and tap outside
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see validation message: "Email address already registered"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Keep "Your Email" field blank in the SIGNUP screen and tap outside
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see validation message: "Email address is required"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Type in Invalid Email format in the "Inviter's Email" field of the SIGNUP screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see validation message: "Invalid email format"</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter a no existing email address in "Inviter's Email" in the SIGNUP screen and tap outside</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Enter a non existing email address in "Inviter's Email" in the SIGNUP screen and tap outside
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see validation message: "Email address not registered with Anodiam"</t>
+    </r>
+  </si>
+  <si>
+    <t>I see Alert help message:
+'Help:', 'Please provide your permanent email address.\n- All communications from Anodiam will be through this email.\n- Also, this is going to be used as your username in Anodiam.'</t>
+  </si>
+  <si>
+    <t>I see Alert help message:
+'Help:', 'Enter the exact email address of the person who invited you to Anodiam.\n- Both of you will get benefits!'</t>
+  </si>
+  <si>
+    <t>I see Alert help message:
+'Help:', 'Eight (8) or more characters.\n- Letters (a-z, A-Z)\n- Numerals (0-9)\n- Special characters (@,#,$,%,^,&amp;,+,=)'</t>
+  </si>
+  <si>
+    <t>The text should be hidden by default</t>
+  </si>
+  <si>
+    <t>Tap on the (?) help icon for "Your Email" field in the SIGNUP screen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Tap on the (?) help icon for "Your Email" field in the SIGNUP screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see Alert help message:
+'Help:', 'Please provide your permanent email address.\n- All communications from Anodiam will be through this email.\n- Also, this is going to be used as your username in Anodiam.'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Tap on the (?) help icon for "Inviter's Email" field in the SIGNUP screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see Alert help message:
+'Help:', 'Enter the exact email address of the person who invited you to Anodiam.\n- Both of you will get benefits!'</t>
+    </r>
+  </si>
+  <si>
+    <t>Tap on the (?) help icon for "Inviter's Email" field in the SIGNUP screen</t>
+  </si>
+  <si>
+    <t>Tap on the (?) help icon for "Password" field in the SIGNUP screen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Tap on the (?) help icon for "Inviter's Email" field in the SIGNUP screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see Alert help message:
+'Help:', 'Eight (8) or more characters.\n- Letters (a-z, A-Z)\n- Numerals (0-9)\n- Special characters (@,#,$,%,^,&amp;,+,=)'</t>
+    </r>
+  </si>
+  <si>
+    <t>Type on the Password field in the SIGNUP screen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Type on the Password field in the SIGNUP screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see that the text is hidden by default</t>
+    </r>
+  </si>
+  <si>
+    <t>Type on the Confirm Password field in the SIGNUP screen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Type on the Confirm Password field in the SIGNUP screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see that the text is hidden by default</t>
+    </r>
+  </si>
+  <si>
+    <t>Type on the Password field in the LOGIN screen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Type on the Password field in the LOGIN screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see that the text is hidden by default</t>
+    </r>
+  </si>
+  <si>
+    <t>Tap on the Eye icon in the Password field and Type on the Password field in the LOGIN screen</t>
+  </si>
+  <si>
+    <t>Tap on the Eye icon in the Password field and Type on the Password field in the SIGNUP screen</t>
+  </si>
+  <si>
+    <t>The text should NOT be hidden and the eye icon will change to closed eye icon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Tap on the Eye icon in the Password field and Type on the Password field in the SIGNUP screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see that The text is NOT hidden and the eye icon will change to closed eye icon</t>
+    </r>
+  </si>
+  <si>
+    <t>Tap on the Eye icon in the Confirm Password field and Type on the Password field in the SIGNUP screen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Tap on the Eye icon in the Confirm Password field and Type on the Password field in the SIGNUP screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see that The text is NOT hidden and the eye icon will change to closed eye icon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Tap on the Eye icon in the Password field and Type on the Password field in the LOGIN screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see that The text is NOT hidden and the eye icon will change to closed eye icon</t>
+    </r>
+  </si>
+  <si>
+    <t>Type on the Confirm Password field in the SIGNUP screen and it does not match the Password field</t>
+  </si>
+  <si>
+    <t>Validation Error is shown as: Confirm password does not match.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Type on the Confirm Password field in the SIGNUP screen and it does not match the Password field
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see that Validation Error is shown as: Confirm password does not match.</t>
+    </r>
+  </si>
+  <si>
+    <t>Validation Error is shown as: Please retype your password.</t>
+  </si>
+  <si>
+    <t>Keep Confirm Password field as blank in the SIGNUP screen and press SIGNUP (or tap outside)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Keep Confirm Password field as blank in the SIGNUP screen and press SIGNUP (or tap outside)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see that Validation Error is shown as: Please retype your password.</t>
+    </r>
+  </si>
+  <si>
+    <t>Keep Email field as blank in the LOGIN screen and press LOGIN (or tap outside)</t>
+  </si>
+  <si>
+    <t>Validation Error is shown as: Email cannot be blank</t>
+  </si>
+  <si>
+    <t>Keep Password field as blank in the LOGIN screen and press LOGIN (or tap outside)</t>
+  </si>
+  <si>
+    <t>Validation Error is shown as: Password cannot be blank</t>
+  </si>
+  <si>
+    <t>Enter invalid Email format in Email field in the LOGIN screen and press LOGIN (or tap outside)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Keep Password field as blank in the LOGIN screen and press LOGIN (or tap outside)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see that Validation Error is shown as: Password cannot be blank.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Keep Email field as blank in the LOGIN screen and press LOGIN (or tap outside)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see that Validation Error is shown as: Email cannot be blank.</t>
+    </r>
+  </si>
+  <si>
+    <t>Validation Error is shown as: Invalid Email format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter wrong credentials in the LOGIN screen and press LOGIN </t>
+  </si>
+  <si>
+    <t>Authentication is denied and Entry to the further screens is stopped with Validation Error is shown on top as: Wrong Email or password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Enter invalid Email format in Email field in the LOGIN screen and press LOGIN (or tap outside)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see that Validation Error is shown as: Invalid Email format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Enter wrong credentials in the LOGIN screen and press LOGIN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see that my Authentication is denied and Entry to the further screens is stopped with Validation Error is shown on top as: Wrong Email or password</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter valid credentials in the LOGIN screen and press LOGIN </t>
+  </si>
+  <si>
+    <t>Authentication is given and I can view my Home screen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Enter valid credentials in the LOGIN screen and press LOGIN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see that my Authentication is given and I can view my Home screen</t>
+    </r>
+  </si>
+  <si>
+    <t>Tap on the "Change/Forget Password" link in the LOGIN screen</t>
+  </si>
+  <si>
+    <t>I could see the Alert message:
+'Change/Forget Password','This functionality will be available soon!'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Tap on the "Change/Forget Password" link in the LOGIN screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see the Alert message:
+'Change/Forget Password','This functionality will be available soon!'</t>
+    </r>
+  </si>
+  <si>
+    <t>I should get validation error: Minimum 6 Chars, Uppercase, Lowercase, Number &amp; Special Char</t>
+  </si>
+  <si>
+    <t>I am registered as an user into Anodiam App and I am authorised and my Home screen is openned with a toast for 5 seconds saying: Congratulations! You are registered into Anodiam!</t>
+  </si>
+  <si>
+    <t>Type in the Password field of the SIGNUP screen, anything different from: Minimum 6 Chars, Uppercase, Lowercase, Number &amp; Special Char</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Type in the Password field of the SIGNUP screen, anything different from: Minimum 6 Chars, Uppercase, Lowercase, Number &amp; Special Char
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see validation error: Minimum 6 Chars, Uppercase, Lowercase, Number &amp; Special Char</t>
+    </r>
+  </si>
+  <si>
+    <t>Type in valid entries for Email, Inviter's Email (not mandatory), Password and confirm Password fields in the SIGNUP screen and press SIGNUP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I am an unsigned user
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I Type in valid entries for Email, Inviter's Email (not mandatory), Password and confirm Password fields in the SIGNUP screen and press SIGNUP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I should be able to see that I am registered as an user into Anodiam App and I am authorised and my Home screen is openned with a toast for 5 seconds saying: Congratulations! You are registered into Anodiam!</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6686,6 +8921,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -6771,10 +9012,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6858,6 +9100,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6869,8 +9112,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7103,31 +9350,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -7195,14 +9442,1136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="37" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" s="37" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H28" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" s="37" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" s="37" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C36">
+      <formula1>"Epic,Story"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B36">
+      <formula1>"Feature,Enabler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I36">
+      <formula1>"1,2,3,5,8,13"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L36">
+      <formula1>"Initial,Scheduled,WIP,Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J36">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3:H5" r:id="rId2" display="006WireframeMVPStudentMobileApp.pptx"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+    <hyperlink ref="H7" r:id="rId4"/>
+    <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="H9:H10" r:id="rId6" display="006WireframeMVPStudentMobileApp.pptx"/>
+    <hyperlink ref="H11" r:id="rId7"/>
+    <hyperlink ref="H12" r:id="rId8"/>
+    <hyperlink ref="H13" r:id="rId9"/>
+    <hyperlink ref="H14" r:id="rId10"/>
+    <hyperlink ref="H15" r:id="rId11"/>
+    <hyperlink ref="H16:H17" r:id="rId12" display="006WireframeMVPStudentMobileApp.pptx"/>
+    <hyperlink ref="H18" r:id="rId13"/>
+    <hyperlink ref="H19" r:id="rId14"/>
+    <hyperlink ref="H20" r:id="rId15"/>
+    <hyperlink ref="H21" r:id="rId16"/>
+    <hyperlink ref="H22:H23" r:id="rId17" display="006WireframeMVPStudentMobileApp.pptx"/>
+    <hyperlink ref="H24" r:id="rId18"/>
+    <hyperlink ref="H25" r:id="rId19"/>
+    <hyperlink ref="H26" r:id="rId20"/>
+    <hyperlink ref="H27" r:id="rId21"/>
+    <hyperlink ref="H28" r:id="rId22"/>
+    <hyperlink ref="H29" r:id="rId23"/>
+    <hyperlink ref="H30" r:id="rId24"/>
+    <hyperlink ref="H31" r:id="rId25"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId26"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -476,7 +476,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="335">
   <si>
     <t>Anodiam</t>
   </si>
@@ -8829,6 +8829,78 @@
       </rPr>
       <t xml:space="preserve"> I should be able to see that I am registered as an user into Anodiam App and I am authorised and my Home screen is openned with a toast for 5 seconds saying: Congratulations! You are registered into Anodiam!</t>
     </r>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Forget Password</t>
+  </si>
+  <si>
+    <t>Sign in with Google</t>
+  </si>
+  <si>
+    <t>Sign in with Facebook</t>
+  </si>
+  <si>
+    <t>Web frontend</t>
+  </si>
+  <si>
+    <t>Jenkins Pipeline</t>
+  </si>
+  <si>
+    <t>Anisible IaC</t>
+  </si>
+  <si>
+    <t>GCP Secret Manager</t>
+  </si>
+  <si>
+    <t>JWT</t>
+  </si>
+  <si>
+    <t>Cloud SQL</t>
+  </si>
+  <si>
+    <t>Istio</t>
+  </si>
+  <si>
+    <t>SSL</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>Jira</t>
+  </si>
+  <si>
+    <t>Promethious</t>
+  </si>
+  <si>
+    <t>Grafana</t>
+  </si>
+  <si>
+    <t>Junit Infra</t>
+  </si>
+  <si>
+    <t>Jest Infra</t>
+  </si>
+  <si>
+    <t>Katalon Studio</t>
+  </si>
+  <si>
+    <t>Automated Code Review Infra</t>
+  </si>
+  <si>
+    <t>Performance Test Infra</t>
+  </si>
+  <si>
+    <t>Pen Test Infra</t>
+  </si>
+  <si>
+    <t>Follow DevOps Bootcamp</t>
+  </si>
+  <si>
+    <t>WIP</t>
   </si>
 </sst>
 </file>
@@ -8928,7 +9000,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8956,6 +9028,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9016,7 +9094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9101,6 +9179,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9112,7 +9194,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9350,31 +9444,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -9442,11 +9536,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9455,14 +9549,14 @@
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" customWidth="1"/>
     <col min="7" max="7" width="57.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9507,536 +9601,465 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="37" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="2" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45">
+        <v>35</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="J2" s="47">
+        <v>5</v>
+      </c>
+      <c r="K2" s="48">
+        <f>J2/I2</f>
+        <v>2.5</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="M2" s="49">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="45">
+        <v>36</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="I3" s="46">
+        <v>2</v>
+      </c>
+      <c r="J3" s="47">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="K3" s="48">
+        <f t="shared" ref="K3:K6" si="0">J3/I3</f>
+        <v>2</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="49">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="45">
+        <v>40</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4" s="46">
+        <v>2</v>
+      </c>
+      <c r="J4" s="47">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K4" s="48">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" s="49">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45">
+        <v>44</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="I5" s="46">
+        <v>2</v>
+      </c>
+      <c r="J5" s="47">
+        <v>5</v>
+      </c>
+      <c r="K5" s="48">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="49">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45">
+        <v>45</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6" s="46">
+        <v>2</v>
+      </c>
+      <c r="J6" s="47">
+        <v>4</v>
+      </c>
+      <c r="K6" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" s="49">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>227</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="10"/>
       <c r="K7" s="30"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>227</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="10"/>
       <c r="K8" s="30"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>227</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="10"/>
       <c r="K9" s="30"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>227</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="10"/>
       <c r="K10" s="30"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>227</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="10"/>
       <c r="K11" s="30"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>227</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="10"/>
       <c r="K12" s="30"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="37" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>227</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="10"/>
       <c r="K13" s="30"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>227</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="10"/>
       <c r="K14" s="30"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>227</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="10"/>
       <c r="K15" s="30"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>227</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="10"/>
       <c r="K16" s="30"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>227</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="10"/>
       <c r="K17" s="30"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>227</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="10"/>
       <c r="K18" s="30"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="37" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>15</v>
@@ -10048,15 +10071,15 @@
         <v>27</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H19" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" s="39" t="s">
         <v>227</v>
       </c>
       <c r="I19" s="7"/>
@@ -10065,9 +10088,9 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>15</v>
@@ -10079,15 +10102,15 @@
         <v>27</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H20" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" s="39" t="s">
         <v>227</v>
       </c>
       <c r="I20" s="7"/>
@@ -10096,9 +10119,9 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>15</v>
@@ -10110,15 +10133,15 @@
         <v>27</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H21" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="H21" s="39" t="s">
         <v>227</v>
       </c>
       <c r="I21" s="7"/>
@@ -10127,9 +10150,9 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>15</v>
@@ -10141,15 +10164,15 @@
         <v>27</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H22" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="H22" s="39" t="s">
         <v>227</v>
       </c>
       <c r="I22" s="7"/>
@@ -10158,9 +10181,9 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>15</v>
@@ -10172,15 +10195,15 @@
         <v>27</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H23" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="H23" s="39" t="s">
         <v>227</v>
       </c>
       <c r="I23" s="7"/>
@@ -10189,9 +10212,9 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>15</v>
@@ -10203,15 +10226,15 @@
         <v>27</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H24" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="H24" s="39" t="s">
         <v>227</v>
       </c>
       <c r="I24" s="7"/>
@@ -10222,7 +10245,7 @@
     </row>
     <row r="25" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>15</v>
@@ -10234,15 +10257,15 @@
         <v>27</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H25" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25" s="39" t="s">
         <v>227</v>
       </c>
       <c r="I25" s="7"/>
@@ -10253,7 +10276,7 @@
     </row>
     <row r="26" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>15</v>
@@ -10265,15 +10288,15 @@
         <v>27</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H26" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="H26" s="39" t="s">
         <v>227</v>
       </c>
       <c r="I26" s="7"/>
@@ -10282,9 +10305,9 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>15</v>
@@ -10296,15 +10319,15 @@
         <v>27</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H27" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="H27" s="39" t="s">
         <v>227</v>
       </c>
       <c r="I27" s="7"/>
@@ -10315,7 +10338,7 @@
     </row>
     <row r="28" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>15</v>
@@ -10327,15 +10350,15 @@
         <v>27</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H28" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="H28" s="39" t="s">
         <v>227</v>
       </c>
       <c r="I28" s="7"/>
@@ -10344,9 +10367,9 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>15</v>
@@ -10358,15 +10381,15 @@
         <v>27</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H29" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="H29" s="39" t="s">
         <v>227</v>
       </c>
       <c r="I29" s="7"/>
@@ -10375,9 +10398,9 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="37" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="37" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>15</v>
@@ -10389,15 +10412,15 @@
         <v>27</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H30" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="H30" s="39" t="s">
         <v>227</v>
       </c>
       <c r="I30" s="7"/>
@@ -10406,9 +10429,9 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="37" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>15</v>
@@ -10420,15 +10443,15 @@
         <v>27</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H31" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="H31" s="39" t="s">
         <v>227</v>
       </c>
       <c r="I31" s="7"/>
@@ -10437,125 +10460,2468 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="43"/>
+    <row r="32" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>14</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>227</v>
+      </c>
       <c r="I32" s="7"/>
       <c r="J32" s="10"/>
       <c r="K32" s="30"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="43"/>
+    <row r="33" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>15</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>227</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="10"/>
       <c r="K33" s="30"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="43"/>
+    <row r="34" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>16</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>227</v>
+      </c>
       <c r="I34" s="7"/>
       <c r="J34" s="10"/>
       <c r="K34" s="30"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="43"/>
+    <row r="35" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>17</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>227</v>
+      </c>
       <c r="I35" s="7"/>
       <c r="J35" s="10"/>
       <c r="K35" s="30"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+    <row r="36" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>18</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>227</v>
+      </c>
       <c r="I36" s="7"/>
       <c r="J36" s="10"/>
       <c r="K36" s="30"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
+    <row r="37" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>19</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>20</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>21</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>22</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>23</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>24</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+    </row>
+    <row r="43" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>25</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>26</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>27</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>28</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>29</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" s="37" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>30</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>31</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>32</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>33</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>34</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+    </row>
+    <row r="55" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+    </row>
+    <row r="58" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+    </row>
+    <row r="59" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+    </row>
+    <row r="60" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+    </row>
+    <row r="61" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+    </row>
+    <row r="62" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+    </row>
+    <row r="63" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+    </row>
+    <row r="64" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+    </row>
+    <row r="65" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+    </row>
+    <row r="66" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+    </row>
+    <row r="67" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+    </row>
+    <row r="68" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+    </row>
+    <row r="69" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+    </row>
+    <row r="70" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+    </row>
+    <row r="71" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+    </row>
+    <row r="72" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+    </row>
+    <row r="73" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+    </row>
+    <row r="74" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+    </row>
+    <row r="75" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+    </row>
+    <row r="76" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+    </row>
+    <row r="77" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+    </row>
+    <row r="78" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+    </row>
+    <row r="79" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+    </row>
+    <row r="80" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+    </row>
+    <row r="82" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+    </row>
+    <row r="83" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+    </row>
+    <row r="86" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+    </row>
+    <row r="87" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+    </row>
+    <row r="88" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+    </row>
+    <row r="89" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+    </row>
+    <row r="90" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+    </row>
+    <row r="91" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+    </row>
+    <row r="92" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+    </row>
+    <row r="93" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+    </row>
+    <row r="94" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+    </row>
+    <row r="95" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+    </row>
+    <row r="96" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+    </row>
+    <row r="97" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+    </row>
+    <row r="98" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+    </row>
+    <row r="99" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="30"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+    </row>
+    <row r="100" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+    </row>
+    <row r="101" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+    </row>
+    <row r="102" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="30"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+    </row>
+    <row r="103" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="30"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+    </row>
+    <row r="104" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+    </row>
+    <row r="105" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+    </row>
+    <row r="106" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="30"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+    </row>
+    <row r="107" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+    </row>
+    <row r="108" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+    </row>
+    <row r="109" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+    </row>
+    <row r="110" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+    </row>
+    <row r="111" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="30"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+    </row>
+    <row r="112" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="30"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+    </row>
+    <row r="113" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="30"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+    </row>
+    <row r="114" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="30"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+    </row>
+    <row r="115" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="30"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+    </row>
+    <row r="116" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="30"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+    </row>
+    <row r="117" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="39"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="30"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+    </row>
+    <row r="118" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="39"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="30"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+    </row>
+    <row r="119" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+    </row>
+    <row r="120" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="39"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="30"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+    </row>
+    <row r="121" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="30"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+    </row>
+    <row r="122" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="39"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="30"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+    </row>
+    <row r="123" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
+    </row>
+    <row r="124" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="39"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="30"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+    </row>
+    <row r="125" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="30"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+    </row>
+    <row r="126" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="39"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="10"/>
+      <c r="K126" s="30"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+    </row>
+    <row r="127" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="39"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="30"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+    </row>
+    <row r="128" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="39"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="30"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+    </row>
+    <row r="129" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="39"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="30"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+    </row>
+    <row r="130" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="10"/>
+      <c r="K130" s="30"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+    </row>
+    <row r="131" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="30"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+    </row>
+    <row r="132" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="30"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+    </row>
+    <row r="133" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="30"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+    </row>
+    <row r="134" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="39"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="10"/>
+      <c r="K134" s="30"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+    </row>
+    <row r="135" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="39"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="30"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+    </row>
+    <row r="136" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="39"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="10"/>
+      <c r="K136" s="30"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+    </row>
+    <row r="137" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="39"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+    </row>
+    <row r="138" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="39"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="30"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+    </row>
+    <row r="139" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="39"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="10"/>
+      <c r="K139" s="30"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+    </row>
+    <row r="140" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="39"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="10"/>
+      <c r="K140" s="30"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+    </row>
+    <row r="141" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="39"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="30"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+    </row>
+    <row r="142" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="39"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="30"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+    </row>
+    <row r="143" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="39"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="30"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+    </row>
+    <row r="144" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="39"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="30"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+    </row>
+    <row r="145" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="39"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="30"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+    </row>
+    <row r="146" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="39"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="10"/>
+      <c r="K146" s="30"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+    </row>
+    <row r="147" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="39"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="10"/>
+      <c r="K147" s="30"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+    </row>
+    <row r="148" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="39"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="10"/>
+      <c r="K148" s="30"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+    </row>
+    <row r="149" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="39"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="10"/>
+      <c r="K149" s="30"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+    </row>
+    <row r="150" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="39"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="10"/>
+      <c r="K150" s="30"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
+    </row>
+    <row r="151" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="39"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="10"/>
+      <c r="K151" s="30"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+    </row>
+    <row r="152" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="39"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="10"/>
+      <c r="K152" s="30"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+    </row>
+    <row r="153" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="39"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="10"/>
+      <c r="K153" s="30"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+    </row>
+    <row r="154" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="39"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="10"/>
+      <c r="K154" s="30"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+    </row>
+    <row r="155" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="39"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="10"/>
+      <c r="K155" s="30"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+    </row>
+    <row r="156" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="39"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="30"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+    </row>
+    <row r="157" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="39"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="10"/>
+      <c r="K157" s="30"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+    </row>
+    <row r="158" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="39"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="10"/>
+      <c r="K158" s="30"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+    </row>
+    <row r="159" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="39"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="10"/>
+      <c r="K159" s="30"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+    </row>
+    <row r="160" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="39"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="10"/>
+      <c r="K160" s="30"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+    </row>
+    <row r="161" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="6"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="39"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="10"/>
+      <c r="K161" s="30"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+    </row>
+    <row r="162" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="39"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="10"/>
+      <c r="K162" s="30"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+    </row>
+    <row r="163" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="39"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="10"/>
+      <c r="K163" s="30"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+    </row>
+    <row r="164" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="39"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="10"/>
+      <c r="K164" s="30"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+    </row>
+    <row r="165" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="6"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="39"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="10"/>
+      <c r="K165" s="30"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+    </row>
+    <row r="166" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="6"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="39"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="10"/>
+      <c r="K166" s="30"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
+    </row>
+    <row r="167" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="6"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="39"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="10"/>
+      <c r="K167" s="30"/>
+      <c r="L167" s="6"/>
+      <c r="M167" s="6"/>
+    </row>
+    <row r="168" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="6"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="39"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="10"/>
+      <c r="K168" s="30"/>
+      <c r="L168" s="6"/>
+      <c r="M168" s="6"/>
+    </row>
+    <row r="169" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="6"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="39"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="10"/>
+      <c r="K169" s="30"/>
+      <c r="L169" s="6"/>
+      <c r="M169" s="6"/>
+    </row>
+    <row r="170" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="6"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="39"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="30"/>
+      <c r="L170" s="6"/>
+      <c r="M170" s="6"/>
+    </row>
+    <row r="171" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="6"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="39"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="10"/>
+      <c r="K171" s="30"/>
+      <c r="L171" s="6"/>
+      <c r="M171" s="6"/>
+    </row>
+    <row r="172" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="6"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="10"/>
+      <c r="K172" s="30"/>
+      <c r="L172" s="6"/>
+      <c r="M172" s="6"/>
+    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C172">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B172">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I172">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L172">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J172">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3:H5" r:id="rId2" display="006WireframeMVPStudentMobileApp.pptx"/>
-    <hyperlink ref="H6" r:id="rId3"/>
-    <hyperlink ref="H7" r:id="rId4"/>
-    <hyperlink ref="H8" r:id="rId5"/>
-    <hyperlink ref="H9:H10" r:id="rId6" display="006WireframeMVPStudentMobileApp.pptx"/>
-    <hyperlink ref="H11" r:id="rId7"/>
-    <hyperlink ref="H12" r:id="rId8"/>
-    <hyperlink ref="H13" r:id="rId9"/>
-    <hyperlink ref="H14" r:id="rId10"/>
-    <hyperlink ref="H15" r:id="rId11"/>
-    <hyperlink ref="H16:H17" r:id="rId12" display="006WireframeMVPStudentMobileApp.pptx"/>
-    <hyperlink ref="H18" r:id="rId13"/>
-    <hyperlink ref="H19" r:id="rId14"/>
-    <hyperlink ref="H20" r:id="rId15"/>
-    <hyperlink ref="H21" r:id="rId16"/>
-    <hyperlink ref="H22:H23" r:id="rId17" display="006WireframeMVPStudentMobileApp.pptx"/>
-    <hyperlink ref="H24" r:id="rId18"/>
-    <hyperlink ref="H25" r:id="rId19"/>
-    <hyperlink ref="H26" r:id="rId20"/>
-    <hyperlink ref="H27" r:id="rId21"/>
-    <hyperlink ref="H28" r:id="rId22"/>
-    <hyperlink ref="H29" r:id="rId23"/>
-    <hyperlink ref="H30" r:id="rId24"/>
-    <hyperlink ref="H31" r:id="rId25"/>
+    <hyperlink ref="H19" r:id="rId1"/>
+    <hyperlink ref="H20:H22" r:id="rId2" display="006WireframeMVPStudentMobileApp.pptx"/>
+    <hyperlink ref="H23" r:id="rId3"/>
+    <hyperlink ref="H24" r:id="rId4"/>
+    <hyperlink ref="H25" r:id="rId5"/>
+    <hyperlink ref="H26:H27" r:id="rId6" display="006WireframeMVPStudentMobileApp.pptx"/>
+    <hyperlink ref="H28" r:id="rId7"/>
+    <hyperlink ref="H29" r:id="rId8"/>
+    <hyperlink ref="H30" r:id="rId9"/>
+    <hyperlink ref="H31" r:id="rId10"/>
+    <hyperlink ref="H32" r:id="rId11"/>
+    <hyperlink ref="H33:H34" r:id="rId12" display="006WireframeMVPStudentMobileApp.pptx"/>
+    <hyperlink ref="H35" r:id="rId13"/>
+    <hyperlink ref="H36" r:id="rId14"/>
+    <hyperlink ref="H37" r:id="rId15"/>
+    <hyperlink ref="H38" r:id="rId16"/>
+    <hyperlink ref="H39:H40" r:id="rId17" display="006WireframeMVPStudentMobileApp.pptx"/>
+    <hyperlink ref="H41" r:id="rId18"/>
+    <hyperlink ref="H42" r:id="rId19"/>
+    <hyperlink ref="H43" r:id="rId20"/>
+    <hyperlink ref="H44" r:id="rId21"/>
+    <hyperlink ref="H45" r:id="rId22"/>
+    <hyperlink ref="H46" r:id="rId23"/>
+    <hyperlink ref="H47" r:id="rId24"/>
+    <hyperlink ref="H48" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId26"/>

--- a/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
+++ b/ITProjectManagement/BA/SpecsWireframes/MVP/005MVPProductBacklog.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="MobileProdBacklog" sheetId="3" r:id="rId2"/>
     <sheet name="WebProdBacklog" sheetId="2" r:id="rId3"/>
+    <sheet name="13Apr" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">WebProdBacklog!$A$1:$M$63</definedName>
@@ -475,8 +476,234 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sydney</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Help:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Acceptance Criteria in Product Backlog comprises of 3 fields, namely:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Given, When Then.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Here all 4 fields should be colated into one.
+E.g. Acceptance criteria for following should be as below:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User Story</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: As a logged out User I want to be able to sign into the website, so that I can see my profile.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Acceptance Criteria</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Scenario:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Registered User Signs with valid username and password.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Given: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">I am logged out of website.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>When:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> I fill in the username and password fields with my valid credentials and click in sign in button
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Then:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> I get signed into the website.
+Here,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Acceptance Criteria</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> could be written in 1 sentence as below:
+Given I am logged out of website, if I fill in the username and password fields with my valid credentials and click in sign in button, I should get signed into the website.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Help:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>XS         :    1 Story Point       :     0 to 2 person hours
+S            :   2 Story Points     :     2 to 4 person hours
+M           :   3 Story Points     :     4 to 8 person hours
+L             :   5 Story Points      :     1 to 1.5 person days
+XL          :   8 Story Points     :     1.5 to 2.5 person days
+XXL       :   13 Story Points    :     0.5 to 1 person weeks
+XXXL    :   21 Story Points    :     Larger and never used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="339">
   <si>
     <t>Anodiam</t>
   </si>
@@ -8901,6 +9128,18 @@
   </si>
   <si>
     <t>WIP</t>
+  </si>
+  <si>
+    <t>PubSub Messaging from Spring Boot</t>
+  </si>
+  <si>
+    <t>Video/Audio/Picture stream upload / Download to GCP storage</t>
+  </si>
+  <si>
+    <t>NFR</t>
+  </si>
+  <si>
+    <t>Task Estimate</t>
   </si>
 </sst>
 </file>
@@ -9094,7 +9333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9183,17 +9422,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -9207,6 +9436,20 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="13" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9444,31 +9687,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -9536,31 +9779,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:M173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" customWidth="1"/>
     <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -9586,7 +9829,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>24</v>
+        <v>338</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>17</v>
@@ -9602,182 +9845,182 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45">
+      <c r="A2" s="41">
         <v>35</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46" t="s">
+      <c r="C2" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="I2" s="46">
+      <c r="I2" s="42">
         <v>2</v>
       </c>
-      <c r="J2" s="47">
+      <c r="J2" s="43">
         <v>5</v>
       </c>
-      <c r="K2" s="48">
+      <c r="K2" s="44">
         <f>J2/I2</f>
         <v>2.5</v>
       </c>
-      <c r="L2" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="M2" s="49">
+      <c r="L2" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="51">
         <v>44664</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45">
+      <c r="A3" s="41">
         <v>36</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46" t="s">
+      <c r="C3" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46" t="s">
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="42">
         <v>2</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="43">
         <v>4</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="44">
         <f t="shared" ref="K3:K6" si="0">J3/I3</f>
         <v>2</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="51">
         <v>44664</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45">
+      <c r="A4" s="41">
         <v>40</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46" t="s">
+      <c r="C4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="42">
         <v>2</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="43">
         <v>5</v>
       </c>
-      <c r="K4" s="48">
+      <c r="K4" s="44">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="51">
         <v>44664</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45">
+      <c r="A5" s="41">
         <v>44</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46" t="s">
+      <c r="C5" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="42">
         <v>2</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="43">
         <v>5</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="44">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="51">
         <v>44664</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45">
+      <c r="A6" s="41">
         <v>45</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46" t="s">
+      <c r="C6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="42">
         <v>2</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="43">
         <v>4</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="44">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="51">
         <v>44664</v>
       </c>
     </row>
@@ -9789,7 +10032,7 @@
         <v>118</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
@@ -9812,7 +10055,7 @@
         <v>118</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
@@ -9835,7 +10078,7 @@
         <v>118</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
@@ -9850,19 +10093,19 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -9875,17 +10118,17 @@
     </row>
     <row r="11" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -9898,17 +10141,17 @@
     </row>
     <row r="12" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -9921,17 +10164,17 @@
     </row>
     <row r="13" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -9944,17 +10187,17 @@
     </row>
     <row r="14" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -9967,17 +10210,17 @@
     </row>
     <row r="15" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -9990,17 +10233,17 @@
     </row>
     <row r="16" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -10013,17 +10256,17 @@
     </row>
     <row r="17" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -10036,17 +10279,17 @@
     </row>
     <row r="18" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -10057,40 +10300,32 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="37" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>227</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="10"/>
       <c r="K19" s="30"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="37" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>15</v>
@@ -10102,13 +10337,13 @@
         <v>27</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>227</v>
@@ -10119,9 +10354,9 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>15</v>
@@ -10133,13 +10368,13 @@
         <v>27</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>227</v>
@@ -10152,7 +10387,7 @@
     </row>
     <row r="22" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>15</v>
@@ -10164,13 +10399,13 @@
         <v>27</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H22" s="39" t="s">
         <v>227</v>
@@ -10183,7 +10418,7 @@
     </row>
     <row r="23" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>15</v>
@@ -10195,13 +10430,13 @@
         <v>27</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>236</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H23" s="39" t="s">
         <v>227</v>
@@ -10214,7 +10449,7 @@
     </row>
     <row r="24" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>15</v>
@@ -10226,13 +10461,13 @@
         <v>27</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>227</v>
@@ -10243,9 +10478,9 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>15</v>
@@ -10257,13 +10492,13 @@
         <v>27</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H25" s="39" t="s">
         <v>227</v>
@@ -10276,7 +10511,7 @@
     </row>
     <row r="26" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>15</v>
@@ -10288,13 +10523,13 @@
         <v>27</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H26" s="39" t="s">
         <v>227</v>
@@ -10307,7 +10542,7 @@
     </row>
     <row r="27" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>15</v>
@@ -10319,13 +10554,13 @@
         <v>27</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H27" s="39" t="s">
         <v>227</v>
@@ -10338,7 +10573,7 @@
     </row>
     <row r="28" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>15</v>
@@ -10350,13 +10585,13 @@
         <v>27</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H28" s="39" t="s">
         <v>227</v>
@@ -10369,7 +10604,7 @@
     </row>
     <row r="29" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>15</v>
@@ -10381,13 +10616,13 @@
         <v>27</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H29" s="39" t="s">
         <v>227</v>
@@ -10398,9 +10633,9 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="37" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>15</v>
@@ -10412,13 +10647,13 @@
         <v>27</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H30" s="39" t="s">
         <v>227</v>
@@ -10429,9 +10664,9 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="37" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>15</v>
@@ -10443,13 +10678,13 @@
         <v>27</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H31" s="39" t="s">
         <v>227</v>
@@ -10462,7 +10697,7 @@
     </row>
     <row r="32" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>15</v>
@@ -10474,13 +10709,13 @@
         <v>27</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>227</v>
@@ -10491,9 +10726,9 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>15</v>
@@ -10505,13 +10740,13 @@
         <v>27</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H33" s="39" t="s">
         <v>227</v>
@@ -10522,9 +10757,9 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>15</v>
@@ -10536,13 +10771,13 @@
         <v>27</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>261</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H34" s="39" t="s">
         <v>227</v>
@@ -10553,9 +10788,9 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>15</v>
@@ -10567,13 +10802,13 @@
         <v>27</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>261</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H35" s="39" t="s">
         <v>227</v>
@@ -10584,9 +10819,9 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>15</v>
@@ -10598,13 +10833,13 @@
         <v>27</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H36" s="39" t="s">
         <v>227</v>
@@ -10617,7 +10852,7 @@
     </row>
     <row r="37" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>15</v>
@@ -10629,13 +10864,13 @@
         <v>27</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>276</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H37" s="39" t="s">
         <v>227</v>
@@ -10648,7 +10883,7 @@
     </row>
     <row r="38" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>15</v>
@@ -10660,13 +10895,13 @@
         <v>27</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>276</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H38" s="39" t="s">
         <v>227</v>
@@ -10679,7 +10914,7 @@
     </row>
     <row r="39" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>15</v>
@@ -10691,13 +10926,13 @@
         <v>27</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H39" s="39" t="s">
         <v>227</v>
@@ -10710,7 +10945,7 @@
     </row>
     <row r="40" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>15</v>
@@ -10722,13 +10957,13 @@
         <v>27</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H40" s="39" t="s">
         <v>227</v>
@@ -10741,7 +10976,7 @@
     </row>
     <row r="41" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>15</v>
@@ -10753,13 +10988,13 @@
         <v>27</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H41" s="39" t="s">
         <v>227</v>
@@ -10772,7 +11007,7 @@
     </row>
     <row r="42" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>15</v>
@@ -10784,13 +11019,13 @@
         <v>27</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H42" s="39" t="s">
         <v>227</v>
@@ -10803,7 +11038,7 @@
     </row>
     <row r="43" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>15</v>
@@ -10815,13 +11050,13 @@
         <v>27</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H43" s="39" t="s">
         <v>227</v>
@@ -10832,9 +11067,9 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>15</v>
@@ -10846,13 +11081,13 @@
         <v>27</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H44" s="39" t="s">
         <v>227</v>
@@ -10863,9 +11098,9 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>15</v>
@@ -10877,13 +11112,13 @@
         <v>27</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H45" s="39" t="s">
         <v>227</v>
@@ -10894,9 +11129,9 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="37" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>15</v>
@@ -10908,13 +11143,13 @@
         <v>27</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H46" s="39" t="s">
         <v>227</v>
@@ -10927,7 +11162,7 @@
     </row>
     <row r="47" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>15</v>
@@ -10939,13 +11174,13 @@
         <v>27</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H47" s="39" t="s">
         <v>227</v>
@@ -10956,9 +11191,9 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" s="37" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>15</v>
@@ -10970,13 +11205,13 @@
         <v>27</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H48" s="39" t="s">
         <v>227</v>
@@ -10987,22 +11222,31 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" s="37" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>311</v>
+        <v>16</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="39"/>
+        <v>309</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>227</v>
+      </c>
       <c r="I49" s="7"/>
       <c r="J49" s="10"/>
       <c r="K49" s="30"/>
@@ -11011,7 +11255,7 @@
     </row>
     <row r="50" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>15</v>
@@ -11019,9 +11263,8 @@
       <c r="C50" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -11034,7 +11277,7 @@
     </row>
     <row r="51" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>15</v>
@@ -11044,7 +11287,7 @@
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -11057,7 +11300,7 @@
     </row>
     <row r="52" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>15</v>
@@ -11067,7 +11310,7 @@
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -11078,12 +11321,20 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+    <row r="53" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>34</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>315</v>
+      </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="39"/>
@@ -11093,12 +11344,20 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
+    <row r="54" spans="1:13" s="38" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="39"/>
@@ -12863,7 +13122,7 @@
       <c r="L171" s="6"/>
       <c r="M171" s="6"/>
     </row>
-    <row r="172" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -12871,57 +13130,74 @@
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
+      <c r="H172" s="39"/>
       <c r="I172" s="7"/>
       <c r="J172" s="10"/>
       <c r="K172" s="30"/>
       <c r="L172" s="6"/>
       <c r="M172" s="6"/>
     </row>
+    <row r="173" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="6"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="10"/>
+      <c r="K173" s="30"/>
+      <c r="L173" s="6"/>
+      <c r="M173" s="6"/>
+    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C172">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C173">
       <formula1>"Epic,Story"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B172">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B173">
       <formula1>"Feature,Enabler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I172">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="I2:I173">
       <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L172">
-      <formula1>"Initial,Scheduled,WIP,Done"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J173">
+      <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="J2:J172">
-      <formula1>"1,2,3,4,5"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="L2:L173">
+      <formula1>"Initial,Scheduled,Done"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H19" r:id="rId1"/>
-    <hyperlink ref="H20:H22" r:id="rId2" display="006WireframeMVPStudentMobileApp.pptx"/>
-    <hyperlink ref="H23" r:id="rId3"/>
-    <hyperlink ref="H24" r:id="rId4"/>
-    <hyperlink ref="H25" r:id="rId5"/>
-    <hyperlink ref="H26:H27" r:id="rId6" display="006WireframeMVPStudentMobileApp.pptx"/>
-    <hyperlink ref="H28" r:id="rId7"/>
-    <hyperlink ref="H29" r:id="rId8"/>
-    <hyperlink ref="H30" r:id="rId9"/>
-    <hyperlink ref="H31" r:id="rId10"/>
-    <hyperlink ref="H32" r:id="rId11"/>
-    <hyperlink ref="H33:H34" r:id="rId12" display="006WireframeMVPStudentMobileApp.pptx"/>
-    <hyperlink ref="H35" r:id="rId13"/>
-    <hyperlink ref="H36" r:id="rId14"/>
-    <hyperlink ref="H37" r:id="rId15"/>
-    <hyperlink ref="H38" r:id="rId16"/>
-    <hyperlink ref="H39:H40" r:id="rId17" display="006WireframeMVPStudentMobileApp.pptx"/>
-    <hyperlink ref="H41" r:id="rId18"/>
-    <hyperlink ref="H42" r:id="rId19"/>
-    <hyperlink ref="H43" r:id="rId20"/>
-    <hyperlink ref="H44" r:id="rId21"/>
-    <hyperlink ref="H45" r:id="rId22"/>
-    <hyperlink ref="H46" r:id="rId23"/>
-    <hyperlink ref="H47" r:id="rId24"/>
-    <hyperlink ref="H48" r:id="rId25"/>
+    <hyperlink ref="H20" r:id="rId1"/>
+    <hyperlink ref="H21:H23" r:id="rId2" display="006WireframeMVPStudentMobileApp.pptx"/>
+    <hyperlink ref="H24" r:id="rId3"/>
+    <hyperlink ref="H25" r:id="rId4"/>
+    <hyperlink ref="H26" r:id="rId5"/>
+    <hyperlink ref="H27:H28" r:id="rId6" display="006WireframeMVPStudentMobileApp.pptx"/>
+    <hyperlink ref="H29" r:id="rId7"/>
+    <hyperlink ref="H30" r:id="rId8"/>
+    <hyperlink ref="H31" r:id="rId9"/>
+    <hyperlink ref="H32" r:id="rId10"/>
+    <hyperlink ref="H33" r:id="rId11"/>
+    <hyperlink ref="H34:H35" r:id="rId12" display="006WireframeMVPStudentMobileApp.pptx"/>
+    <hyperlink ref="H36" r:id="rId13"/>
+    <hyperlink ref="H37" r:id="rId14"/>
+    <hyperlink ref="H38" r:id="rId15"/>
+    <hyperlink ref="H39" r:id="rId16"/>
+    <hyperlink ref="H40:H41" r:id="rId17" display="006WireframeMVPStudentMobileApp.pptx"/>
+    <hyperlink ref="H42" r:id="rId18"/>
+    <hyperlink ref="H43" r:id="rId19"/>
+    <hyperlink ref="H44" r:id="rId20"/>
+    <hyperlink ref="H45" r:id="rId21"/>
+    <hyperlink ref="H46" r:id="rId22"/>
+    <hyperlink ref="H47" r:id="rId23"/>
+    <hyperlink ref="H48" r:id="rId24"/>
+    <hyperlink ref="H49" r:id="rId25"/>
+    <hyperlink ref="M2" location="'13Apr'!A1" display="'13Apr'!A1"/>
+    <hyperlink ref="M3:M6" location="'13Apr'!A1" display="'13Apr'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId26"/>
@@ -15308,4 +15584,255 @@
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41">
+        <v>35</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" s="42">
+        <v>2</v>
+      </c>
+      <c r="H2" s="43">
+        <v>5</v>
+      </c>
+      <c r="I2" s="44">
+        <f>H2/G2</f>
+        <v>2.5</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="45">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="41">
+        <v>36</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" s="42">
+        <v>2</v>
+      </c>
+      <c r="H3" s="43">
+        <v>4</v>
+      </c>
+      <c r="I3" s="44">
+        <f t="shared" ref="I3:I6" si="0">H3/G3</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K3" s="45">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="41">
+        <v>40</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="G4" s="42">
+        <v>2</v>
+      </c>
+      <c r="H4" s="43">
+        <v>5</v>
+      </c>
+      <c r="I4" s="44">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="45">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41">
+        <v>44</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" s="42">
+        <v>2</v>
+      </c>
+      <c r="H5" s="43">
+        <v>5</v>
+      </c>
+      <c r="I5" s="44">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K5" s="45">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="41">
+        <v>45</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" s="42">
+        <v>2</v>
+      </c>
+      <c r="H6" s="43">
+        <v>4</v>
+      </c>
+      <c r="I6" s="44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K6" s="45">
+        <v>44664</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Business Value Error!" error="Business Value should be an integer between 1 to 5!" sqref="H2:H6">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimates Error!" error="Enter Story Points in Fibonacci!!!" promptTitle="Enter Story Points in Fibonacci" prompt="Enter Story Points in Fibonacci Series: 1, 2, 3, 5, 8, 13." sqref="G2:G6">
+      <formula1>"1,2,3,5,8,13"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6">
+      <formula1>"Feature,Enabler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
+      <formula1>"Epic,Story"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Please select Status only from the dropdown!!!" sqref="J2:J6">
+      <formula1>"Scheduled,WIP,Done,Defect"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>